--- a/Offline/Marketring/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/Marketring/MarketingMasterPlan-May-2023.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\Marketring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19D82AE-514B-4523-8F85-0D25E0AFDE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="Postering" sheetId="8" r:id="rId10"/>
     <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -235,9 +234,6 @@
     <t>Picture / Text Post</t>
   </si>
   <si>
-    <t>About Anodiam</t>
-  </si>
-  <si>
     <t>What Exams (IIT / JEE/ NEET)</t>
   </si>
   <si>
@@ -391,18 +387,12 @@
     <t>Contact Us</t>
   </si>
   <si>
-    <t>Home Page (Carousel Control)</t>
-  </si>
-  <si>
     <t>My Profile - Student</t>
   </si>
   <si>
     <t>Major Courses Tought</t>
   </si>
   <si>
-    <t>Free Lessons</t>
-  </si>
-  <si>
     <t>Search Courses</t>
   </si>
   <si>
@@ -469,9 +459,6 @@
     <t>Register, Login, Logout, Authorization, Authentication (Super Admin, Admin, Student, Teacher, Guardian)</t>
   </si>
   <si>
-    <t>Publish to each parent (academic, behavioral, Special (Alert!, Share news, Share happiness)</t>
-  </si>
-  <si>
     <t>My Students</t>
   </si>
   <si>
@@ -502,18 +489,12 @@
     <t>My Inspirations</t>
   </si>
   <si>
-    <t>Publish inspirations</t>
-  </si>
-  <si>
     <t>My child's achievements</t>
   </si>
   <si>
     <t>My child's attendance</t>
   </si>
   <si>
-    <t>Teacher's Communication  to parent (academic, behavioral, Special (Alert!, Share news, Share happiness)</t>
-  </si>
-  <si>
     <t>Enroll to courses (Buy online, pay yearly / monthly) (Check seats availability)</t>
   </si>
   <si>
@@ -592,9 +573,6 @@
     <t>Run payouts for teachers</t>
   </si>
   <si>
-    <t>Give a feedback / rating for a course / teacher</t>
-  </si>
-  <si>
     <t>Approve a teacher's feedback / rating</t>
   </si>
   <si>
@@ -605,12 +583,33 @@
   </si>
   <si>
     <t>Expense reports</t>
+  </si>
+  <si>
+    <t>Give feedback/rating for a course/teacher/document / overall Anodiam etc.</t>
+  </si>
+  <si>
+    <t>Publish inspirations/encouragements</t>
+  </si>
+  <si>
+    <t>Publish to each parent (academic, behavioral, Special (Alert!, Share news, Share happiness))</t>
+  </si>
+  <si>
+    <t>Teacher's Communication  to parent (academic, behavioral, Special (Alert!, Share news, Share happiness))</t>
+  </si>
+  <si>
+    <t>Demo Lessons</t>
+  </si>
+  <si>
+    <t>About Anodiam (Carousel Control)</t>
+  </si>
+  <si>
+    <t>Home Page (About Anodiam + Login + Explore)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,7 +671,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,6 +777,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,44 +1776,11 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1869,7 +1841,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1882,6 +1853,40 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2161,7 +2166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2219,57 +2224,57 @@
     </row>
     <row r="2" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="137" t="s">
+      <c r="E2" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="137" t="s">
+      <c r="G2" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="144" t="s">
+      <c r="H2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="137" t="s">
+      <c r="I2" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="139" t="s">
+      <c r="J2" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="133" t="s">
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="175" t="s">
         <v>24</v>
       </c>
       <c r="U2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="138"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="180"/>
       <c r="J3" s="40" t="s">
         <v>22</v>
       </c>
@@ -2300,7 +2305,7 @@
       <c r="S3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="134"/>
+      <c r="T3" s="176"/>
       <c r="U3" s="10"/>
       <c r="V3" s="11"/>
       <c r="W3" s="12"/>
@@ -2338,11 +2343,11 @@
         <v>45081</v>
       </c>
       <c r="K4" s="46">
-        <f>IF(J4="","",J4+28)</f>
+        <f t="shared" ref="K4:K14" si="0">IF(J4="","",J4+28)</f>
         <v>45109</v>
       </c>
       <c r="L4" s="46">
-        <f>IF(J4="","",J4+42)</f>
+        <f t="shared" ref="L4:L14" si="1">IF(J4="","",J4+42)</f>
         <v>45123</v>
       </c>
       <c r="M4" s="46" t="s">
@@ -2352,21 +2357,21 @@
         <v>0</v>
       </c>
       <c r="O4" s="47">
-        <f t="shared" ref="O4:O14" si="0">IF(N4&lt;100,1,IF(N4&lt;1000,2,IF(N4&lt;5000,3,IF(N4&lt;20000,4,5))))</f>
+        <f t="shared" ref="O4:O14" si="2">IF(N4&lt;100,1,IF(N4&lt;1000,2,IF(N4&lt;5000,3,IF(N4&lt;20000,4,5))))</f>
         <v>1</v>
       </c>
       <c r="P4" s="47">
         <v>1</v>
       </c>
       <c r="Q4" s="47">
-        <f t="shared" ref="Q4:Q14" si="1">IF(R4&lt;5,1,IF(R4&lt;20,2,IF(R4&lt;50,3,IF(R4&lt;100,4,5))))</f>
+        <f t="shared" ref="Q4:Q14" si="3">IF(R4&lt;5,1,IF(R4&lt;20,2,IF(R4&lt;50,3,IF(R4&lt;100,4,5))))</f>
         <v>1</v>
       </c>
       <c r="R4" s="47">
         <v>0</v>
       </c>
       <c r="S4" s="48">
-        <f>IF(R4&gt;0,LOG((125*Q4*Q4)/(O4*P4),5),1)</f>
+        <f t="shared" ref="S4:S14" si="4">IF(R4&gt;0,LOG((125*Q4*Q4)/(O4*P4),5),1)</f>
         <v>1</v>
       </c>
       <c r="T4" s="49"/>
@@ -2403,11 +2408,11 @@
         <v>45110</v>
       </c>
       <c r="K5" s="20">
-        <f t="shared" ref="K5:K9" si="2">IF(J5="","",J5+28)</f>
+        <f t="shared" si="0"/>
         <v>45138</v>
       </c>
       <c r="L5" s="20">
-        <f t="shared" ref="L5:L9" si="3">IF(J5="","",J5+42)</f>
+        <f t="shared" si="1"/>
         <v>45152</v>
       </c>
       <c r="M5" s="20" t="s">
@@ -2417,21 +2422,21 @@
         <v>0</v>
       </c>
       <c r="O5" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P5" s="21">
         <v>1</v>
       </c>
       <c r="Q5" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R5" s="21">
         <v>0</v>
       </c>
       <c r="S5" s="28">
-        <f>IF(R5&gt;0,LOG((125*Q5*Q5)/(O5*P5),5),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T5" s="51"/>
@@ -2458,7 +2463,7 @@
       <c r="G6" s="20">
         <v>45052</v>
       </c>
-      <c r="H6" s="142" t="s">
+      <c r="H6" s="133" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="19" t="s">
@@ -2468,11 +2473,11 @@
         <v>45052</v>
       </c>
       <c r="K6" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45080</v>
       </c>
       <c r="L6" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45094</v>
       </c>
       <c r="M6" s="20" t="s">
@@ -2482,21 +2487,21 @@
         <v>0</v>
       </c>
       <c r="O6" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P6" s="21">
         <v>1</v>
       </c>
       <c r="Q6" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R6" s="21">
         <v>0</v>
       </c>
       <c r="S6" s="28">
-        <f t="shared" ref="S6:S9" si="4">IF(R6&gt;0,LOG((125*Q6*Q6)/(O6*P6),5),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T6" s="51"/>
@@ -2533,11 +2538,11 @@
         <v>45052</v>
       </c>
       <c r="K7" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45080</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45094</v>
       </c>
       <c r="M7" s="20" t="s">
@@ -2547,14 +2552,14 @@
         <v>0</v>
       </c>
       <c r="O7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P7" s="21">
         <v>1</v>
       </c>
       <c r="Q7" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R7" s="21">
@@ -2598,11 +2603,11 @@
         <v>45052</v>
       </c>
       <c r="K8" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45080</v>
       </c>
       <c r="L8" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45094</v>
       </c>
       <c r="M8" s="20" t="s">
@@ -2612,14 +2617,14 @@
         <v>0</v>
       </c>
       <c r="O8" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P8" s="21">
         <v>1</v>
       </c>
       <c r="Q8" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R8" s="21">
@@ -2663,11 +2668,11 @@
         <v>45052</v>
       </c>
       <c r="K9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45080</v>
       </c>
       <c r="L9" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45094</v>
       </c>
       <c r="M9" s="20" t="s">
@@ -2677,14 +2682,14 @@
         <v>0</v>
       </c>
       <c r="O9" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P9" s="21">
         <v>1</v>
       </c>
       <c r="Q9" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R9" s="21">
@@ -2718,7 +2723,7 @@
       <c r="G10" s="56">
         <v>45052</v>
       </c>
-      <c r="H10" s="143" t="s">
+      <c r="H10" s="134" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="55" t="s">
@@ -2728,11 +2733,11 @@
         <v>45052</v>
       </c>
       <c r="K10" s="56">
-        <f>IF(J10="","",J10+28)</f>
+        <f t="shared" si="0"/>
         <v>45080</v>
       </c>
       <c r="L10" s="56">
-        <f>IF(J10="","",J10+42)</f>
+        <f t="shared" si="1"/>
         <v>45094</v>
       </c>
       <c r="M10" s="56" t="s">
@@ -2742,21 +2747,21 @@
         <v>0</v>
       </c>
       <c r="O10" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P10" s="57">
         <v>1</v>
       </c>
       <c r="Q10" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R10" s="57">
         <v>0</v>
       </c>
       <c r="S10" s="58">
-        <f>IF(R10&gt;0,LOG((125*Q10*Q10)/(O10*P10),5),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T10" s="59"/>
@@ -2783,7 +2788,7 @@
       <c r="G11" s="46">
         <v>45052</v>
       </c>
-      <c r="H11" s="146" t="s">
+      <c r="H11" s="135" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="45" t="s">
@@ -2793,11 +2798,11 @@
         <v>45052</v>
       </c>
       <c r="K11" s="46">
-        <f>IF(J11="","",J11+28)</f>
+        <f t="shared" si="0"/>
         <v>45080</v>
       </c>
       <c r="L11" s="46">
-        <f>IF(J11="","",J11+42)</f>
+        <f t="shared" si="1"/>
         <v>45094</v>
       </c>
       <c r="M11" s="46" t="s">
@@ -2807,21 +2812,21 @@
         <v>0</v>
       </c>
       <c r="O11" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P11" s="47">
         <v>1</v>
       </c>
       <c r="Q11" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R11" s="47">
         <v>0</v>
       </c>
       <c r="S11" s="48">
-        <f>IF(R11&gt;0,LOG((125*Q11*Q11)/(O11*P11),5),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T11" s="49"/>
@@ -2858,11 +2863,11 @@
         <v>45052</v>
       </c>
       <c r="K12" s="20">
-        <f>IF(J12="","",J12+28)</f>
+        <f t="shared" si="0"/>
         <v>45080</v>
       </c>
       <c r="L12" s="20">
-        <f>IF(J12="","",J12+42)</f>
+        <f t="shared" si="1"/>
         <v>45094</v>
       </c>
       <c r="M12" s="20" t="s">
@@ -2872,21 +2877,21 @@
         <v>0</v>
       </c>
       <c r="O12" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P12" s="21">
         <v>1</v>
       </c>
       <c r="Q12" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R12" s="21">
         <v>0</v>
       </c>
       <c r="S12" s="28">
-        <f>IF(R12&gt;0,LOG((125*Q12*Q12)/(O12*P12),5),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T12" s="62"/>
@@ -2913,7 +2918,7 @@
       <c r="G13" s="20">
         <v>45052</v>
       </c>
-      <c r="H13" s="142" t="s">
+      <c r="H13" s="133" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="19" t="s">
@@ -2923,11 +2928,11 @@
         <v>45052</v>
       </c>
       <c r="K13" s="20">
-        <f>IF(J13="","",J13+28)</f>
+        <f t="shared" si="0"/>
         <v>45080</v>
       </c>
       <c r="L13" s="20">
-        <f>IF(J13="","",J13+42)</f>
+        <f t="shared" si="1"/>
         <v>45094</v>
       </c>
       <c r="M13" s="20" t="s">
@@ -2937,21 +2942,21 @@
         <v>0</v>
       </c>
       <c r="O13" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P13" s="21">
         <v>1</v>
       </c>
       <c r="Q13" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R13" s="21">
         <v>0</v>
       </c>
       <c r="S13" s="28">
-        <f>IF(R13&gt;0,LOG((125*Q13*Q13)/(O13*P13),5),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T13" s="51"/>
@@ -2988,11 +2993,11 @@
         <v>45052</v>
       </c>
       <c r="K14" s="56">
-        <f>IF(J14="","",J14+28)</f>
+        <f t="shared" si="0"/>
         <v>45080</v>
       </c>
       <c r="L14" s="56">
-        <f>IF(J14="","",J14+42)</f>
+        <f t="shared" si="1"/>
         <v>45094</v>
       </c>
       <c r="M14" s="56" t="s">
@@ -3002,21 +3007,21 @@
         <v>0</v>
       </c>
       <c r="O14" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P14" s="57">
         <v>1</v>
       </c>
       <c r="Q14" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R14" s="57">
         <v>0</v>
       </c>
       <c r="S14" s="58">
-        <f>IF(R14&gt;0,LOG((125*Q14*Q14)/(O14*P14),5),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T14" s="59"/>
@@ -3795,28 +3800,28 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5 T22:T23 T6:T16 I21 I24 G6:H27" xr:uid="{3641F2CF-D392-4AF3-8DB0-9F3A2E7F2FA4}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5 T22:T23 T6:T16 I21 I24 G6:H27">
       <formula1>45051</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H27 E4:F30" xr:uid="{C23556EF-6C85-4617-A93A-6ACB868B4C95}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H27 E4:F30">
       <formula1>"Yes, No, Partial, N/A"</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date Field" error="Date Field" sqref="G15:G26 T8 T10:T27" xr:uid="{88BC9F66-2809-4490-8F31-CD2B638F0B7C}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date Field" error="Date Field" sqref="G15:G26 T8 T10:T27">
       <formula1>45051</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C27" xr:uid="{B3C29400-0E18-4628-8EB2-9D59B86D025B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C27">
       <formula1>"Digital, Traditional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M30" xr:uid="{B96A7331-CD52-48AC-A30C-CDCBEF7DC00B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M30">
       <formula1>"New, Planned, WIP, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Input" error="Please select 1-5 from dropdown" sqref="O4:Q30" xr:uid="{EAF2D4A8-2272-4661-AE11-CCEF65C32E7C}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Input" error="Please select 1-5 from dropdown" sqref="O4:Q30">
       <formula1>"1, 2, 3, 4, 5"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please enter a positive whole number!" sqref="N4:R30" xr:uid="{D62E1F9D-BD69-4293-995E-CD1ECBA6E691}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please enter a positive whole number!" sqref="N4:R30">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I30" xr:uid="{27424931-EFDB-423F-9F2F-7EC7260B6F25}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I30">
       <formula1>"Daily Twice, Daily, Weekly Twice, Weekly, Fortnightly, Monthly, One off, N/A, TBD"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3826,7 +3831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76866895-36C1-46C6-9026-1541A0EED95A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3838,7 +3843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE75EDB8-0BA8-4D45-881F-4D1438203B2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6476,11 +6481,11 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a positive whole number!" sqref="E2:E126" xr:uid="{2DBDBEED-D89E-463B-A993-A02E4ACD08F9}"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please enter a positive whole number!" sqref="A2:A51 B2:E126" xr:uid="{16576784-363C-4D9B-94CD-75110D155AFE}">
+    <dataValidation showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a positive whole number!" sqref="E2:E126"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please enter a positive whole number!" sqref="A2:A51 B2:E126">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Input" error="Please select 1-5 from dropdown" sqref="B2:E126" xr:uid="{366555DF-1552-466F-AC67-9F876F187F9E}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Input" error="Please select 1-5 from dropdown" sqref="B2:E126">
       <formula1>"1, 2, 3, 4, 5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6489,14 +6494,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81BBD57-23C2-4202-A689-0DA77DA629AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:QP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6507,1551 +6512,1551 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:458" ht="57" x14ac:dyDescent="0.3">
-      <c r="C1" s="152">
+      <c r="C1" s="141">
         <v>45052</v>
       </c>
-      <c r="D1" s="152">
+      <c r="D1" s="141">
         <v>45053</v>
       </c>
-      <c r="E1" s="152">
+      <c r="E1" s="141">
         <v>45054</v>
       </c>
-      <c r="F1" s="152">
+      <c r="F1" s="141">
         <v>45055</v>
       </c>
-      <c r="G1" s="152">
+      <c r="G1" s="141">
         <v>45056</v>
       </c>
-      <c r="H1" s="152">
+      <c r="H1" s="141">
         <v>45057</v>
       </c>
-      <c r="I1" s="152">
+      <c r="I1" s="141">
         <v>45058</v>
       </c>
-      <c r="J1" s="153">
+      <c r="J1" s="142">
         <v>45059</v>
       </c>
-      <c r="K1" s="153">
+      <c r="K1" s="142">
         <v>45060</v>
       </c>
-      <c r="L1" s="153">
+      <c r="L1" s="142">
         <v>45061</v>
       </c>
-      <c r="M1" s="153">
+      <c r="M1" s="142">
         <v>45062</v>
       </c>
-      <c r="N1" s="153">
+      <c r="N1" s="142">
         <v>45063</v>
       </c>
-      <c r="O1" s="153">
+      <c r="O1" s="142">
         <v>45064</v>
       </c>
-      <c r="P1" s="153">
+      <c r="P1" s="142">
         <v>45065</v>
       </c>
-      <c r="Q1" s="154">
+      <c r="Q1" s="143">
         <v>45066</v>
       </c>
-      <c r="R1" s="154">
+      <c r="R1" s="143">
         <v>45067</v>
       </c>
-      <c r="S1" s="154">
+      <c r="S1" s="143">
         <v>45068</v>
       </c>
-      <c r="T1" s="154">
+      <c r="T1" s="143">
         <v>45069</v>
       </c>
-      <c r="U1" s="154">
+      <c r="U1" s="143">
         <v>45070</v>
       </c>
-      <c r="V1" s="154">
+      <c r="V1" s="143">
         <v>45071</v>
       </c>
-      <c r="W1" s="154">
+      <c r="W1" s="143">
         <v>45072</v>
       </c>
-      <c r="X1" s="155">
+      <c r="X1" s="144">
         <v>45073</v>
       </c>
-      <c r="Y1" s="155">
+      <c r="Y1" s="144">
         <v>45074</v>
       </c>
-      <c r="Z1" s="155">
+      <c r="Z1" s="144">
         <v>45075</v>
       </c>
-      <c r="AA1" s="155">
+      <c r="AA1" s="144">
         <v>45076</v>
       </c>
-      <c r="AB1" s="155">
+      <c r="AB1" s="144">
         <v>45077</v>
       </c>
-      <c r="AC1" s="155">
+      <c r="AC1" s="144">
         <v>45078</v>
       </c>
-      <c r="AD1" s="155">
+      <c r="AD1" s="144">
         <v>45079</v>
       </c>
-      <c r="BH1" s="147"/>
-      <c r="BI1" s="147"/>
-      <c r="BJ1" s="147"/>
-      <c r="BK1" s="147"/>
-      <c r="BL1" s="147"/>
-      <c r="BM1" s="147"/>
-      <c r="BN1" s="147"/>
-      <c r="BO1" s="147"/>
-      <c r="BP1" s="147"/>
-      <c r="BQ1" s="147"/>
-      <c r="BR1" s="147"/>
-      <c r="BS1" s="147"/>
-      <c r="BT1" s="147"/>
-      <c r="BU1" s="147"/>
-      <c r="BV1" s="147"/>
-      <c r="BW1" s="147"/>
-      <c r="BX1" s="147"/>
-      <c r="BY1" s="147"/>
-      <c r="BZ1" s="147"/>
-      <c r="CA1" s="147"/>
-      <c r="CB1" s="147"/>
-      <c r="CC1" s="147"/>
-      <c r="CD1" s="147"/>
-      <c r="CE1" s="147"/>
-      <c r="CF1" s="147"/>
-      <c r="CG1" s="147"/>
-      <c r="CH1" s="147"/>
-      <c r="CI1" s="147"/>
-      <c r="CJ1" s="147"/>
-      <c r="CK1" s="147"/>
-      <c r="CL1" s="147"/>
-      <c r="CM1" s="147"/>
-      <c r="CN1" s="147"/>
-      <c r="CO1" s="147"/>
-      <c r="CP1" s="147"/>
-      <c r="CQ1" s="147"/>
-      <c r="CR1" s="147"/>
-      <c r="CS1" s="147"/>
-      <c r="CT1" s="147"/>
-      <c r="CU1" s="147"/>
-      <c r="CV1" s="147"/>
-      <c r="CW1" s="147"/>
-      <c r="CX1" s="147"/>
-      <c r="CY1" s="147"/>
-      <c r="CZ1" s="147"/>
-      <c r="DA1" s="147"/>
-      <c r="DB1" s="147"/>
-      <c r="DC1" s="147"/>
-      <c r="DD1" s="147"/>
-      <c r="DE1" s="147"/>
-      <c r="DF1" s="147"/>
-      <c r="DG1" s="147"/>
-      <c r="DH1" s="147"/>
-      <c r="DI1" s="147"/>
-      <c r="DJ1" s="147"/>
-      <c r="DK1" s="147"/>
-      <c r="DL1" s="147"/>
-      <c r="DM1" s="147"/>
-      <c r="DN1" s="147"/>
-      <c r="DO1" s="147"/>
-      <c r="DP1" s="147"/>
-      <c r="DQ1" s="147"/>
-      <c r="DR1" s="147"/>
-      <c r="DS1" s="147"/>
-      <c r="DT1" s="147"/>
-      <c r="DU1" s="147"/>
-      <c r="DV1" s="147"/>
-      <c r="DW1" s="147"/>
-      <c r="DX1" s="147"/>
-      <c r="DY1" s="147"/>
-      <c r="DZ1" s="147"/>
-      <c r="EA1" s="147"/>
-      <c r="EB1" s="147"/>
-      <c r="EC1" s="147"/>
-      <c r="ED1" s="147"/>
-      <c r="EE1" s="147"/>
-      <c r="EF1" s="147"/>
-      <c r="EG1" s="147"/>
-      <c r="EH1" s="147"/>
-      <c r="EI1" s="147"/>
-      <c r="EJ1" s="147"/>
-      <c r="EK1" s="147"/>
-      <c r="EL1" s="147"/>
-      <c r="EM1" s="147"/>
-      <c r="EN1" s="147"/>
-      <c r="EO1" s="147"/>
-      <c r="EP1" s="147"/>
-      <c r="EQ1" s="147"/>
-      <c r="ER1" s="147"/>
-      <c r="ES1" s="147"/>
-      <c r="ET1" s="147"/>
-      <c r="EU1" s="147"/>
-      <c r="EV1" s="147"/>
-      <c r="EW1" s="147"/>
-      <c r="EX1" s="147"/>
-      <c r="EY1" s="147"/>
-      <c r="EZ1" s="147"/>
-      <c r="FA1" s="147"/>
-      <c r="FB1" s="147"/>
-      <c r="FC1" s="147"/>
-      <c r="FD1" s="147"/>
-      <c r="FE1" s="147"/>
-      <c r="FF1" s="147"/>
-      <c r="FG1" s="147"/>
-      <c r="FH1" s="147"/>
-      <c r="FI1" s="147"/>
-      <c r="FJ1" s="147"/>
-      <c r="FK1" s="147"/>
-      <c r="FL1" s="147"/>
-      <c r="FM1" s="147"/>
-      <c r="FN1" s="147"/>
-      <c r="FO1" s="147"/>
-      <c r="FP1" s="147"/>
-      <c r="FQ1" s="147"/>
-      <c r="FR1" s="147"/>
-      <c r="FS1" s="147"/>
-      <c r="FT1" s="147"/>
-      <c r="FU1" s="147"/>
-      <c r="FV1" s="147"/>
-      <c r="FW1" s="147"/>
-      <c r="FX1" s="147"/>
-      <c r="FY1" s="147"/>
-      <c r="FZ1" s="147"/>
-      <c r="GA1" s="147"/>
-      <c r="GB1" s="147"/>
-      <c r="GC1" s="147"/>
-      <c r="GD1" s="147"/>
-      <c r="GE1" s="147"/>
-      <c r="GF1" s="147"/>
-      <c r="GG1" s="147"/>
-      <c r="GH1" s="147"/>
-      <c r="GI1" s="147"/>
-      <c r="GJ1" s="147"/>
-      <c r="GK1" s="147"/>
-      <c r="GL1" s="147"/>
-      <c r="GM1" s="147"/>
-      <c r="GN1" s="147"/>
-      <c r="GO1" s="147"/>
-      <c r="GP1" s="147"/>
-      <c r="GQ1" s="147"/>
-      <c r="GR1" s="147"/>
-      <c r="GS1" s="147"/>
-      <c r="GT1" s="147"/>
-      <c r="GU1" s="147"/>
-      <c r="GV1" s="147"/>
-      <c r="GW1" s="147"/>
-      <c r="GX1" s="147"/>
-      <c r="GY1" s="147"/>
-      <c r="GZ1" s="147"/>
-      <c r="HA1" s="147"/>
-      <c r="HB1" s="147"/>
-      <c r="HC1" s="147"/>
-      <c r="HD1" s="147"/>
-      <c r="HE1" s="147"/>
-      <c r="HF1" s="147"/>
-      <c r="HG1" s="147"/>
-      <c r="HH1" s="147"/>
-      <c r="HI1" s="147"/>
-      <c r="HJ1" s="147"/>
-      <c r="HK1" s="147"/>
-      <c r="HL1" s="147"/>
-      <c r="HM1" s="147"/>
-      <c r="HN1" s="147"/>
-      <c r="HO1" s="147"/>
-      <c r="HP1" s="147"/>
-      <c r="HQ1" s="147"/>
-      <c r="HR1" s="147"/>
-      <c r="HS1" s="147"/>
-      <c r="HT1" s="147"/>
-      <c r="HU1" s="147"/>
-      <c r="HV1" s="147"/>
-      <c r="HW1" s="147"/>
-      <c r="HX1" s="147"/>
-      <c r="HY1" s="147"/>
-      <c r="HZ1" s="147"/>
-      <c r="IA1" s="147"/>
-      <c r="IB1" s="147"/>
-      <c r="IC1" s="147"/>
-      <c r="ID1" s="147"/>
-      <c r="IE1" s="147"/>
-      <c r="IF1" s="147"/>
-      <c r="IG1" s="147"/>
-      <c r="IH1" s="147"/>
-      <c r="II1" s="147"/>
-      <c r="IJ1" s="147"/>
-      <c r="IK1" s="147"/>
-      <c r="IL1" s="147"/>
-      <c r="IM1" s="147"/>
-      <c r="IN1" s="147"/>
-      <c r="IO1" s="147"/>
-      <c r="IP1" s="147"/>
-      <c r="IQ1" s="147"/>
-      <c r="IR1" s="147"/>
-      <c r="IS1" s="147"/>
-      <c r="IT1" s="147"/>
-      <c r="IU1" s="147"/>
-      <c r="IV1" s="147"/>
-      <c r="IW1" s="147"/>
-      <c r="IX1" s="147"/>
-      <c r="IY1" s="147"/>
-      <c r="IZ1" s="147"/>
-      <c r="JA1" s="147"/>
-      <c r="JB1" s="147"/>
-      <c r="JC1" s="147"/>
-      <c r="JD1" s="147"/>
-      <c r="JE1" s="147"/>
-      <c r="JF1" s="147"/>
-      <c r="JG1" s="147"/>
-      <c r="JH1" s="147"/>
-      <c r="JI1" s="147"/>
-      <c r="JJ1" s="147"/>
-      <c r="JK1" s="147"/>
-      <c r="JL1" s="147"/>
-      <c r="JM1" s="147"/>
-      <c r="JN1" s="147"/>
-      <c r="JO1" s="147"/>
-      <c r="JP1" s="147"/>
-      <c r="JQ1" s="147"/>
-      <c r="JR1" s="147"/>
-      <c r="JS1" s="147"/>
-      <c r="JT1" s="147"/>
-      <c r="JU1" s="147"/>
-      <c r="JV1" s="147"/>
-      <c r="JW1" s="147"/>
-      <c r="JX1" s="147"/>
-      <c r="JY1" s="147"/>
-      <c r="JZ1" s="147"/>
-      <c r="KA1" s="147"/>
-      <c r="KB1" s="147"/>
-      <c r="KC1" s="147"/>
-      <c r="KD1" s="147"/>
-      <c r="KE1" s="147"/>
-      <c r="KF1" s="147"/>
-      <c r="KG1" s="147"/>
-      <c r="KH1" s="147"/>
-      <c r="KI1" s="147"/>
-      <c r="KJ1" s="147"/>
-      <c r="KK1" s="147"/>
-      <c r="KL1" s="147"/>
-      <c r="KM1" s="147"/>
-      <c r="KN1" s="147"/>
-      <c r="KO1" s="147"/>
-      <c r="KP1" s="147"/>
-      <c r="KQ1" s="147"/>
-      <c r="KR1" s="147"/>
-      <c r="KS1" s="147"/>
-      <c r="KT1" s="147"/>
-      <c r="KU1" s="147"/>
-      <c r="KV1" s="147"/>
-      <c r="KW1" s="147"/>
-      <c r="KX1" s="147"/>
-      <c r="KY1" s="147"/>
-      <c r="KZ1" s="147"/>
-      <c r="LA1" s="147"/>
-      <c r="LB1" s="147"/>
-      <c r="LC1" s="147"/>
-      <c r="LD1" s="147"/>
-      <c r="LE1" s="147"/>
-      <c r="LF1" s="147"/>
-      <c r="LG1" s="147"/>
-      <c r="LH1" s="147"/>
-      <c r="LI1" s="147"/>
-      <c r="LJ1" s="147"/>
-      <c r="LK1" s="147"/>
-      <c r="LL1" s="147"/>
-      <c r="LM1" s="147"/>
-      <c r="LN1" s="147"/>
-      <c r="LO1" s="147"/>
-      <c r="LP1" s="147"/>
-      <c r="LQ1" s="147"/>
-      <c r="LR1" s="147"/>
-      <c r="LS1" s="147"/>
-      <c r="LT1" s="147"/>
-      <c r="LU1" s="147"/>
-      <c r="LV1" s="147"/>
-      <c r="LW1" s="147"/>
-      <c r="LX1" s="147"/>
-      <c r="LY1" s="147"/>
-      <c r="LZ1" s="147"/>
-      <c r="MA1" s="147"/>
-      <c r="MB1" s="147"/>
-      <c r="MC1" s="147"/>
-      <c r="MD1" s="147"/>
-      <c r="ME1" s="147"/>
-      <c r="MF1" s="147"/>
-      <c r="MG1" s="147"/>
-      <c r="MH1" s="147"/>
-      <c r="MI1" s="147"/>
-      <c r="MJ1" s="147"/>
-      <c r="MK1" s="147"/>
-      <c r="ML1" s="147"/>
-      <c r="MM1" s="147"/>
-      <c r="MN1" s="147"/>
-      <c r="MO1" s="147"/>
-      <c r="MP1" s="147"/>
-      <c r="MQ1" s="147"/>
-      <c r="MR1" s="147"/>
-      <c r="MS1" s="147"/>
-      <c r="MT1" s="147"/>
-      <c r="MU1" s="147"/>
-      <c r="MV1" s="147"/>
-      <c r="MW1" s="147"/>
-      <c r="MX1" s="147"/>
-      <c r="MY1" s="147"/>
-      <c r="MZ1" s="147"/>
-      <c r="NA1" s="147"/>
-      <c r="NB1" s="147"/>
-      <c r="NC1" s="147"/>
-      <c r="ND1" s="147"/>
-      <c r="NE1" s="147"/>
-      <c r="NF1" s="147"/>
-      <c r="NG1" s="147"/>
-      <c r="NH1" s="147"/>
-      <c r="NI1" s="147"/>
-      <c r="NJ1" s="147"/>
-      <c r="NK1" s="147"/>
-      <c r="NL1" s="147"/>
-      <c r="NM1" s="147"/>
-      <c r="NN1" s="147"/>
-      <c r="NO1" s="147"/>
-      <c r="NP1" s="147"/>
-      <c r="NQ1" s="147"/>
-      <c r="NR1" s="147"/>
-      <c r="NS1" s="147"/>
-      <c r="NT1" s="147"/>
-      <c r="NU1" s="147"/>
-      <c r="NV1" s="147"/>
-      <c r="NW1" s="147"/>
-      <c r="NX1" s="147"/>
-      <c r="NY1" s="147"/>
-      <c r="NZ1" s="147"/>
-      <c r="OA1" s="147"/>
-      <c r="OB1" s="147"/>
-      <c r="OC1" s="147"/>
-      <c r="OD1" s="147"/>
-      <c r="OE1" s="147"/>
-      <c r="OF1" s="147"/>
-      <c r="OG1" s="147"/>
-      <c r="OH1" s="147"/>
-      <c r="OI1" s="147"/>
-      <c r="OJ1" s="147"/>
-      <c r="OK1" s="147"/>
-      <c r="OL1" s="147"/>
-      <c r="OM1" s="147"/>
-      <c r="ON1" s="147"/>
-      <c r="OO1" s="147"/>
-      <c r="OP1" s="147"/>
-      <c r="OQ1" s="147"/>
-      <c r="OR1" s="147"/>
-      <c r="OS1" s="147"/>
-      <c r="OT1" s="147"/>
-      <c r="OU1" s="147"/>
-      <c r="OV1" s="147"/>
-      <c r="OW1" s="147"/>
-      <c r="OX1" s="147"/>
-      <c r="OY1" s="147"/>
-      <c r="OZ1" s="147"/>
-      <c r="PA1" s="147"/>
-      <c r="PB1" s="147"/>
-      <c r="PC1" s="147"/>
-      <c r="PD1" s="147"/>
-      <c r="PE1" s="147"/>
-      <c r="PF1" s="147"/>
-      <c r="PG1" s="147"/>
-      <c r="PH1" s="147"/>
-      <c r="PI1" s="147"/>
-      <c r="PJ1" s="147"/>
-      <c r="PK1" s="147"/>
-      <c r="PL1" s="147"/>
-      <c r="PM1" s="147"/>
-      <c r="PN1" s="147"/>
-      <c r="PO1" s="147"/>
-      <c r="PP1" s="147"/>
-      <c r="PQ1" s="147"/>
-      <c r="PR1" s="147"/>
-      <c r="PS1" s="147"/>
-      <c r="PT1" s="147"/>
-      <c r="PU1" s="147"/>
-      <c r="PV1" s="147"/>
-      <c r="PW1" s="147"/>
-      <c r="PX1" s="147"/>
-      <c r="PY1" s="147"/>
-      <c r="PZ1" s="147"/>
-      <c r="QA1" s="147"/>
-      <c r="QB1" s="147"/>
-      <c r="QC1" s="147"/>
-      <c r="QD1" s="147"/>
-      <c r="QE1" s="147"/>
-      <c r="QF1" s="147"/>
-      <c r="QG1" s="147"/>
-      <c r="QH1" s="147"/>
-      <c r="QI1" s="147"/>
-      <c r="QJ1" s="147"/>
-      <c r="QK1" s="147"/>
-      <c r="QL1" s="147"/>
-      <c r="QM1" s="147"/>
-      <c r="QN1" s="147"/>
-      <c r="QO1" s="147"/>
-      <c r="QP1" s="147"/>
+      <c r="BH1" s="136"/>
+      <c r="BI1" s="136"/>
+      <c r="BJ1" s="136"/>
+      <c r="BK1" s="136"/>
+      <c r="BL1" s="136"/>
+      <c r="BM1" s="136"/>
+      <c r="BN1" s="136"/>
+      <c r="BO1" s="136"/>
+      <c r="BP1" s="136"/>
+      <c r="BQ1" s="136"/>
+      <c r="BR1" s="136"/>
+      <c r="BS1" s="136"/>
+      <c r="BT1" s="136"/>
+      <c r="BU1" s="136"/>
+      <c r="BV1" s="136"/>
+      <c r="BW1" s="136"/>
+      <c r="BX1" s="136"/>
+      <c r="BY1" s="136"/>
+      <c r="BZ1" s="136"/>
+      <c r="CA1" s="136"/>
+      <c r="CB1" s="136"/>
+      <c r="CC1" s="136"/>
+      <c r="CD1" s="136"/>
+      <c r="CE1" s="136"/>
+      <c r="CF1" s="136"/>
+      <c r="CG1" s="136"/>
+      <c r="CH1" s="136"/>
+      <c r="CI1" s="136"/>
+      <c r="CJ1" s="136"/>
+      <c r="CK1" s="136"/>
+      <c r="CL1" s="136"/>
+      <c r="CM1" s="136"/>
+      <c r="CN1" s="136"/>
+      <c r="CO1" s="136"/>
+      <c r="CP1" s="136"/>
+      <c r="CQ1" s="136"/>
+      <c r="CR1" s="136"/>
+      <c r="CS1" s="136"/>
+      <c r="CT1" s="136"/>
+      <c r="CU1" s="136"/>
+      <c r="CV1" s="136"/>
+      <c r="CW1" s="136"/>
+      <c r="CX1" s="136"/>
+      <c r="CY1" s="136"/>
+      <c r="CZ1" s="136"/>
+      <c r="DA1" s="136"/>
+      <c r="DB1" s="136"/>
+      <c r="DC1" s="136"/>
+      <c r="DD1" s="136"/>
+      <c r="DE1" s="136"/>
+      <c r="DF1" s="136"/>
+      <c r="DG1" s="136"/>
+      <c r="DH1" s="136"/>
+      <c r="DI1" s="136"/>
+      <c r="DJ1" s="136"/>
+      <c r="DK1" s="136"/>
+      <c r="DL1" s="136"/>
+      <c r="DM1" s="136"/>
+      <c r="DN1" s="136"/>
+      <c r="DO1" s="136"/>
+      <c r="DP1" s="136"/>
+      <c r="DQ1" s="136"/>
+      <c r="DR1" s="136"/>
+      <c r="DS1" s="136"/>
+      <c r="DT1" s="136"/>
+      <c r="DU1" s="136"/>
+      <c r="DV1" s="136"/>
+      <c r="DW1" s="136"/>
+      <c r="DX1" s="136"/>
+      <c r="DY1" s="136"/>
+      <c r="DZ1" s="136"/>
+      <c r="EA1" s="136"/>
+      <c r="EB1" s="136"/>
+      <c r="EC1" s="136"/>
+      <c r="ED1" s="136"/>
+      <c r="EE1" s="136"/>
+      <c r="EF1" s="136"/>
+      <c r="EG1" s="136"/>
+      <c r="EH1" s="136"/>
+      <c r="EI1" s="136"/>
+      <c r="EJ1" s="136"/>
+      <c r="EK1" s="136"/>
+      <c r="EL1" s="136"/>
+      <c r="EM1" s="136"/>
+      <c r="EN1" s="136"/>
+      <c r="EO1" s="136"/>
+      <c r="EP1" s="136"/>
+      <c r="EQ1" s="136"/>
+      <c r="ER1" s="136"/>
+      <c r="ES1" s="136"/>
+      <c r="ET1" s="136"/>
+      <c r="EU1" s="136"/>
+      <c r="EV1" s="136"/>
+      <c r="EW1" s="136"/>
+      <c r="EX1" s="136"/>
+      <c r="EY1" s="136"/>
+      <c r="EZ1" s="136"/>
+      <c r="FA1" s="136"/>
+      <c r="FB1" s="136"/>
+      <c r="FC1" s="136"/>
+      <c r="FD1" s="136"/>
+      <c r="FE1" s="136"/>
+      <c r="FF1" s="136"/>
+      <c r="FG1" s="136"/>
+      <c r="FH1" s="136"/>
+      <c r="FI1" s="136"/>
+      <c r="FJ1" s="136"/>
+      <c r="FK1" s="136"/>
+      <c r="FL1" s="136"/>
+      <c r="FM1" s="136"/>
+      <c r="FN1" s="136"/>
+      <c r="FO1" s="136"/>
+      <c r="FP1" s="136"/>
+      <c r="FQ1" s="136"/>
+      <c r="FR1" s="136"/>
+      <c r="FS1" s="136"/>
+      <c r="FT1" s="136"/>
+      <c r="FU1" s="136"/>
+      <c r="FV1" s="136"/>
+      <c r="FW1" s="136"/>
+      <c r="FX1" s="136"/>
+      <c r="FY1" s="136"/>
+      <c r="FZ1" s="136"/>
+      <c r="GA1" s="136"/>
+      <c r="GB1" s="136"/>
+      <c r="GC1" s="136"/>
+      <c r="GD1" s="136"/>
+      <c r="GE1" s="136"/>
+      <c r="GF1" s="136"/>
+      <c r="GG1" s="136"/>
+      <c r="GH1" s="136"/>
+      <c r="GI1" s="136"/>
+      <c r="GJ1" s="136"/>
+      <c r="GK1" s="136"/>
+      <c r="GL1" s="136"/>
+      <c r="GM1" s="136"/>
+      <c r="GN1" s="136"/>
+      <c r="GO1" s="136"/>
+      <c r="GP1" s="136"/>
+      <c r="GQ1" s="136"/>
+      <c r="GR1" s="136"/>
+      <c r="GS1" s="136"/>
+      <c r="GT1" s="136"/>
+      <c r="GU1" s="136"/>
+      <c r="GV1" s="136"/>
+      <c r="GW1" s="136"/>
+      <c r="GX1" s="136"/>
+      <c r="GY1" s="136"/>
+      <c r="GZ1" s="136"/>
+      <c r="HA1" s="136"/>
+      <c r="HB1" s="136"/>
+      <c r="HC1" s="136"/>
+      <c r="HD1" s="136"/>
+      <c r="HE1" s="136"/>
+      <c r="HF1" s="136"/>
+      <c r="HG1" s="136"/>
+      <c r="HH1" s="136"/>
+      <c r="HI1" s="136"/>
+      <c r="HJ1" s="136"/>
+      <c r="HK1" s="136"/>
+      <c r="HL1" s="136"/>
+      <c r="HM1" s="136"/>
+      <c r="HN1" s="136"/>
+      <c r="HO1" s="136"/>
+      <c r="HP1" s="136"/>
+      <c r="HQ1" s="136"/>
+      <c r="HR1" s="136"/>
+      <c r="HS1" s="136"/>
+      <c r="HT1" s="136"/>
+      <c r="HU1" s="136"/>
+      <c r="HV1" s="136"/>
+      <c r="HW1" s="136"/>
+      <c r="HX1" s="136"/>
+      <c r="HY1" s="136"/>
+      <c r="HZ1" s="136"/>
+      <c r="IA1" s="136"/>
+      <c r="IB1" s="136"/>
+      <c r="IC1" s="136"/>
+      <c r="ID1" s="136"/>
+      <c r="IE1" s="136"/>
+      <c r="IF1" s="136"/>
+      <c r="IG1" s="136"/>
+      <c r="IH1" s="136"/>
+      <c r="II1" s="136"/>
+      <c r="IJ1" s="136"/>
+      <c r="IK1" s="136"/>
+      <c r="IL1" s="136"/>
+      <c r="IM1" s="136"/>
+      <c r="IN1" s="136"/>
+      <c r="IO1" s="136"/>
+      <c r="IP1" s="136"/>
+      <c r="IQ1" s="136"/>
+      <c r="IR1" s="136"/>
+      <c r="IS1" s="136"/>
+      <c r="IT1" s="136"/>
+      <c r="IU1" s="136"/>
+      <c r="IV1" s="136"/>
+      <c r="IW1" s="136"/>
+      <c r="IX1" s="136"/>
+      <c r="IY1" s="136"/>
+      <c r="IZ1" s="136"/>
+      <c r="JA1" s="136"/>
+      <c r="JB1" s="136"/>
+      <c r="JC1" s="136"/>
+      <c r="JD1" s="136"/>
+      <c r="JE1" s="136"/>
+      <c r="JF1" s="136"/>
+      <c r="JG1" s="136"/>
+      <c r="JH1" s="136"/>
+      <c r="JI1" s="136"/>
+      <c r="JJ1" s="136"/>
+      <c r="JK1" s="136"/>
+      <c r="JL1" s="136"/>
+      <c r="JM1" s="136"/>
+      <c r="JN1" s="136"/>
+      <c r="JO1" s="136"/>
+      <c r="JP1" s="136"/>
+      <c r="JQ1" s="136"/>
+      <c r="JR1" s="136"/>
+      <c r="JS1" s="136"/>
+      <c r="JT1" s="136"/>
+      <c r="JU1" s="136"/>
+      <c r="JV1" s="136"/>
+      <c r="JW1" s="136"/>
+      <c r="JX1" s="136"/>
+      <c r="JY1" s="136"/>
+      <c r="JZ1" s="136"/>
+      <c r="KA1" s="136"/>
+      <c r="KB1" s="136"/>
+      <c r="KC1" s="136"/>
+      <c r="KD1" s="136"/>
+      <c r="KE1" s="136"/>
+      <c r="KF1" s="136"/>
+      <c r="KG1" s="136"/>
+      <c r="KH1" s="136"/>
+      <c r="KI1" s="136"/>
+      <c r="KJ1" s="136"/>
+      <c r="KK1" s="136"/>
+      <c r="KL1" s="136"/>
+      <c r="KM1" s="136"/>
+      <c r="KN1" s="136"/>
+      <c r="KO1" s="136"/>
+      <c r="KP1" s="136"/>
+      <c r="KQ1" s="136"/>
+      <c r="KR1" s="136"/>
+      <c r="KS1" s="136"/>
+      <c r="KT1" s="136"/>
+      <c r="KU1" s="136"/>
+      <c r="KV1" s="136"/>
+      <c r="KW1" s="136"/>
+      <c r="KX1" s="136"/>
+      <c r="KY1" s="136"/>
+      <c r="KZ1" s="136"/>
+      <c r="LA1" s="136"/>
+      <c r="LB1" s="136"/>
+      <c r="LC1" s="136"/>
+      <c r="LD1" s="136"/>
+      <c r="LE1" s="136"/>
+      <c r="LF1" s="136"/>
+      <c r="LG1" s="136"/>
+      <c r="LH1" s="136"/>
+      <c r="LI1" s="136"/>
+      <c r="LJ1" s="136"/>
+      <c r="LK1" s="136"/>
+      <c r="LL1" s="136"/>
+      <c r="LM1" s="136"/>
+      <c r="LN1" s="136"/>
+      <c r="LO1" s="136"/>
+      <c r="LP1" s="136"/>
+      <c r="LQ1" s="136"/>
+      <c r="LR1" s="136"/>
+      <c r="LS1" s="136"/>
+      <c r="LT1" s="136"/>
+      <c r="LU1" s="136"/>
+      <c r="LV1" s="136"/>
+      <c r="LW1" s="136"/>
+      <c r="LX1" s="136"/>
+      <c r="LY1" s="136"/>
+      <c r="LZ1" s="136"/>
+      <c r="MA1" s="136"/>
+      <c r="MB1" s="136"/>
+      <c r="MC1" s="136"/>
+      <c r="MD1" s="136"/>
+      <c r="ME1" s="136"/>
+      <c r="MF1" s="136"/>
+      <c r="MG1" s="136"/>
+      <c r="MH1" s="136"/>
+      <c r="MI1" s="136"/>
+      <c r="MJ1" s="136"/>
+      <c r="MK1" s="136"/>
+      <c r="ML1" s="136"/>
+      <c r="MM1" s="136"/>
+      <c r="MN1" s="136"/>
+      <c r="MO1" s="136"/>
+      <c r="MP1" s="136"/>
+      <c r="MQ1" s="136"/>
+      <c r="MR1" s="136"/>
+      <c r="MS1" s="136"/>
+      <c r="MT1" s="136"/>
+      <c r="MU1" s="136"/>
+      <c r="MV1" s="136"/>
+      <c r="MW1" s="136"/>
+      <c r="MX1" s="136"/>
+      <c r="MY1" s="136"/>
+      <c r="MZ1" s="136"/>
+      <c r="NA1" s="136"/>
+      <c r="NB1" s="136"/>
+      <c r="NC1" s="136"/>
+      <c r="ND1" s="136"/>
+      <c r="NE1" s="136"/>
+      <c r="NF1" s="136"/>
+      <c r="NG1" s="136"/>
+      <c r="NH1" s="136"/>
+      <c r="NI1" s="136"/>
+      <c r="NJ1" s="136"/>
+      <c r="NK1" s="136"/>
+      <c r="NL1" s="136"/>
+      <c r="NM1" s="136"/>
+      <c r="NN1" s="136"/>
+      <c r="NO1" s="136"/>
+      <c r="NP1" s="136"/>
+      <c r="NQ1" s="136"/>
+      <c r="NR1" s="136"/>
+      <c r="NS1" s="136"/>
+      <c r="NT1" s="136"/>
+      <c r="NU1" s="136"/>
+      <c r="NV1" s="136"/>
+      <c r="NW1" s="136"/>
+      <c r="NX1" s="136"/>
+      <c r="NY1" s="136"/>
+      <c r="NZ1" s="136"/>
+      <c r="OA1" s="136"/>
+      <c r="OB1" s="136"/>
+      <c r="OC1" s="136"/>
+      <c r="OD1" s="136"/>
+      <c r="OE1" s="136"/>
+      <c r="OF1" s="136"/>
+      <c r="OG1" s="136"/>
+      <c r="OH1" s="136"/>
+      <c r="OI1" s="136"/>
+      <c r="OJ1" s="136"/>
+      <c r="OK1" s="136"/>
+      <c r="OL1" s="136"/>
+      <c r="OM1" s="136"/>
+      <c r="ON1" s="136"/>
+      <c r="OO1" s="136"/>
+      <c r="OP1" s="136"/>
+      <c r="OQ1" s="136"/>
+      <c r="OR1" s="136"/>
+      <c r="OS1" s="136"/>
+      <c r="OT1" s="136"/>
+      <c r="OU1" s="136"/>
+      <c r="OV1" s="136"/>
+      <c r="OW1" s="136"/>
+      <c r="OX1" s="136"/>
+      <c r="OY1" s="136"/>
+      <c r="OZ1" s="136"/>
+      <c r="PA1" s="136"/>
+      <c r="PB1" s="136"/>
+      <c r="PC1" s="136"/>
+      <c r="PD1" s="136"/>
+      <c r="PE1" s="136"/>
+      <c r="PF1" s="136"/>
+      <c r="PG1" s="136"/>
+      <c r="PH1" s="136"/>
+      <c r="PI1" s="136"/>
+      <c r="PJ1" s="136"/>
+      <c r="PK1" s="136"/>
+      <c r="PL1" s="136"/>
+      <c r="PM1" s="136"/>
+      <c r="PN1" s="136"/>
+      <c r="PO1" s="136"/>
+      <c r="PP1" s="136"/>
+      <c r="PQ1" s="136"/>
+      <c r="PR1" s="136"/>
+      <c r="PS1" s="136"/>
+      <c r="PT1" s="136"/>
+      <c r="PU1" s="136"/>
+      <c r="PV1" s="136"/>
+      <c r="PW1" s="136"/>
+      <c r="PX1" s="136"/>
+      <c r="PY1" s="136"/>
+      <c r="PZ1" s="136"/>
+      <c r="QA1" s="136"/>
+      <c r="QB1" s="136"/>
+      <c r="QC1" s="136"/>
+      <c r="QD1" s="136"/>
+      <c r="QE1" s="136"/>
+      <c r="QF1" s="136"/>
+      <c r="QG1" s="136"/>
+      <c r="QH1" s="136"/>
+      <c r="QI1" s="136"/>
+      <c r="QJ1" s="136"/>
+      <c r="QK1" s="136"/>
+      <c r="QL1" s="136"/>
+      <c r="QM1" s="136"/>
+      <c r="QN1" s="136"/>
+      <c r="QO1" s="136"/>
+      <c r="QP1" s="136"/>
     </row>
     <row r="2" spans="1:458" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="151"/>
-      <c r="AD2" s="151"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
     </row>
     <row r="3" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="151"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="151"/>
-      <c r="AC3" s="151"/>
-      <c r="AD3" s="151"/>
+        <v>69</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="137"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
     </row>
     <row r="4" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="148"/>
-      <c r="T4" s="148"/>
-      <c r="U4" s="148"/>
-      <c r="V4" s="148"/>
-      <c r="W4" s="148"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
+        <v>64</v>
+      </c>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="140"/>
     </row>
     <row r="5" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="148"/>
-      <c r="T5" s="148"/>
-      <c r="U5" s="148"/>
-      <c r="V5" s="148"/>
-      <c r="W5" s="148"/>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="151"/>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AB5" s="151"/>
-      <c r="AC5" s="151"/>
-      <c r="AD5" s="151"/>
+        <v>63</v>
+      </c>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
     </row>
     <row r="6" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="148"/>
-      <c r="S6" s="148"/>
-      <c r="T6" s="148"/>
-      <c r="U6" s="148"/>
-      <c r="V6" s="148"/>
-      <c r="W6" s="148"/>
-      <c r="X6" s="151"/>
-      <c r="Y6" s="151"/>
-      <c r="Z6" s="151"/>
-      <c r="AA6" s="151"/>
-      <c r="AB6" s="151"/>
-      <c r="AC6" s="151"/>
-      <c r="AD6" s="151"/>
+        <v>65</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="137"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="137"/>
+      <c r="U6" s="137"/>
+      <c r="V6" s="137"/>
+      <c r="W6" s="137"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
+      <c r="AB6" s="140"/>
+      <c r="AC6" s="140"/>
+      <c r="AD6" s="140"/>
     </row>
     <row r="7" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="148"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="148"/>
-      <c r="U7" s="148"/>
-      <c r="V7" s="148"/>
-      <c r="W7" s="148"/>
-      <c r="X7" s="151"/>
-      <c r="Y7" s="151"/>
-      <c r="Z7" s="151"/>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="151"/>
-      <c r="AC7" s="151"/>
-      <c r="AD7" s="151"/>
+        <v>66</v>
+      </c>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="137"/>
+      <c r="V7" s="137"/>
+      <c r="W7" s="137"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="140"/>
+      <c r="AD7" s="140"/>
     </row>
     <row r="8" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="148"/>
-      <c r="V8" s="148"/>
-      <c r="W8" s="148"/>
-      <c r="X8" s="151"/>
-      <c r="Y8" s="151"/>
-      <c r="Z8" s="151"/>
-      <c r="AA8" s="151"/>
-      <c r="AB8" s="151"/>
-      <c r="AC8" s="151"/>
-      <c r="AD8" s="151"/>
+        <v>70</v>
+      </c>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="140"/>
+      <c r="AD8" s="140"/>
     </row>
     <row r="9" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="151"/>
-      <c r="Y9" s="151"/>
-      <c r="Z9" s="151"/>
-      <c r="AA9" s="151"/>
-      <c r="AB9" s="151"/>
-      <c r="AC9" s="151"/>
-      <c r="AD9" s="151"/>
+        <v>71</v>
+      </c>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="140"/>
+      <c r="AC9" s="140"/>
+      <c r="AD9" s="140"/>
     </row>
     <row r="10" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="151"/>
-      <c r="Y10" s="151"/>
-      <c r="Z10" s="151"/>
-      <c r="AA10" s="151"/>
-      <c r="AB10" s="151"/>
-      <c r="AC10" s="151"/>
-      <c r="AD10" s="151"/>
+        <v>72</v>
+      </c>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="140"/>
+      <c r="AA10" s="140"/>
+      <c r="AB10" s="140"/>
+      <c r="AC10" s="140"/>
+      <c r="AD10" s="140"/>
     </row>
     <row r="11" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="151"/>
-      <c r="Y11" s="151"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="151"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="151"/>
-      <c r="AD11" s="151"/>
+        <v>73</v>
+      </c>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
+      <c r="AB11" s="140"/>
+      <c r="AC11" s="140"/>
+      <c r="AD11" s="140"/>
     </row>
     <row r="12" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="150"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="151"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="151"/>
-      <c r="AB12" s="151"/>
-      <c r="AC12" s="151"/>
-      <c r="AD12" s="151"/>
+        <v>74</v>
+      </c>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="139"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="140"/>
+      <c r="AD12" s="140"/>
     </row>
     <row r="13" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="150"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="151"/>
+        <v>75</v>
+      </c>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="140"/>
+      <c r="AD13" s="140"/>
     </row>
     <row r="14" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="151"/>
-      <c r="AC14" s="151"/>
-      <c r="AD14" s="151"/>
+        <v>76</v>
+      </c>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="140"/>
+      <c r="Y14" s="140"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="140"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="140"/>
+      <c r="AD14" s="140"/>
     </row>
     <row r="15" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="150"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="151"/>
-      <c r="Y15" s="151"/>
-      <c r="Z15" s="151"/>
-      <c r="AA15" s="151"/>
-      <c r="AB15" s="151"/>
-      <c r="AC15" s="151"/>
-      <c r="AD15" s="151"/>
+        <v>77</v>
+      </c>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="140"/>
+      <c r="Z15" s="140"/>
+      <c r="AA15" s="140"/>
+      <c r="AB15" s="140"/>
+      <c r="AC15" s="140"/>
+      <c r="AD15" s="140"/>
     </row>
     <row r="16" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="150"/>
-      <c r="P16" s="150"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="151"/>
-      <c r="Z16" s="151"/>
-      <c r="AA16" s="151"/>
-      <c r="AB16" s="151"/>
-      <c r="AC16" s="151"/>
-      <c r="AD16" s="151"/>
+        <v>78</v>
+      </c>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="140"/>
+      <c r="Z16" s="140"/>
+      <c r="AA16" s="140"/>
+      <c r="AB16" s="140"/>
+      <c r="AC16" s="140"/>
+      <c r="AD16" s="140"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="150"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="150"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="151"/>
-      <c r="Z17" s="151"/>
-      <c r="AA17" s="151"/>
-      <c r="AB17" s="151"/>
-      <c r="AC17" s="151"/>
-      <c r="AD17" s="151"/>
+        <v>79</v>
+      </c>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="140"/>
+      <c r="Y17" s="140"/>
+      <c r="Z17" s="140"/>
+      <c r="AA17" s="140"/>
+      <c r="AB17" s="140"/>
+      <c r="AC17" s="140"/>
+      <c r="AD17" s="140"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="149"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="150"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="150"/>
-      <c r="P18" s="150"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="151"/>
-      <c r="Y18" s="151"/>
-      <c r="Z18" s="151"/>
-      <c r="AA18" s="151"/>
-      <c r="AB18" s="151"/>
-      <c r="AC18" s="151"/>
-      <c r="AD18" s="151"/>
+        <v>80</v>
+      </c>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="140"/>
+      <c r="Y18" s="140"/>
+      <c r="Z18" s="140"/>
+      <c r="AA18" s="140"/>
+      <c r="AB18" s="140"/>
+      <c r="AC18" s="140"/>
+      <c r="AD18" s="140"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="150"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="150"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="151"/>
-      <c r="Y19" s="151"/>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="151"/>
-      <c r="AB19" s="151"/>
-      <c r="AC19" s="151"/>
-      <c r="AD19" s="151"/>
+        <v>81</v>
+      </c>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="140"/>
+      <c r="Y19" s="140"/>
+      <c r="Z19" s="140"/>
+      <c r="AA19" s="140"/>
+      <c r="AB19" s="140"/>
+      <c r="AC19" s="140"/>
+      <c r="AD19" s="140"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="149"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="150"/>
-      <c r="P20" s="150"/>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="151"/>
-      <c r="Y20" s="151"/>
-      <c r="Z20" s="151"/>
-      <c r="AA20" s="151"/>
-      <c r="AB20" s="151"/>
-      <c r="AC20" s="151"/>
-      <c r="AD20" s="151"/>
+        <v>64</v>
+      </c>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="140"/>
+      <c r="Y20" s="140"/>
+      <c r="Z20" s="140"/>
+      <c r="AA20" s="140"/>
+      <c r="AB20" s="140"/>
+      <c r="AC20" s="140"/>
+      <c r="AD20" s="140"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="150"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="150"/>
-      <c r="O21" s="150"/>
-      <c r="P21" s="150"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="151"/>
-      <c r="Y21" s="151"/>
-      <c r="Z21" s="151"/>
-      <c r="AA21" s="151"/>
-      <c r="AB21" s="151"/>
-      <c r="AC21" s="151"/>
-      <c r="AD21" s="151"/>
+        <v>63</v>
+      </c>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="140"/>
+      <c r="Y21" s="140"/>
+      <c r="Z21" s="140"/>
+      <c r="AA21" s="140"/>
+      <c r="AB21" s="140"/>
+      <c r="AC21" s="140"/>
+      <c r="AD21" s="140"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="150"/>
-      <c r="P22" s="150"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="151"/>
-      <c r="Y22" s="151"/>
-      <c r="Z22" s="151"/>
-      <c r="AA22" s="151"/>
-      <c r="AB22" s="151"/>
-      <c r="AC22" s="151"/>
-      <c r="AD22" s="151"/>
+        <v>65</v>
+      </c>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="140"/>
+      <c r="Y22" s="140"/>
+      <c r="Z22" s="140"/>
+      <c r="AA22" s="140"/>
+      <c r="AB22" s="140"/>
+      <c r="AC22" s="140"/>
+      <c r="AD22" s="140"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="150"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="151"/>
-      <c r="Y23" s="151"/>
-      <c r="Z23" s="151"/>
-      <c r="AA23" s="151"/>
-      <c r="AB23" s="151"/>
-      <c r="AC23" s="151"/>
-      <c r="AD23" s="151"/>
+        <v>66</v>
+      </c>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="137"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="140"/>
+      <c r="Y23" s="140"/>
+      <c r="Z23" s="140"/>
+      <c r="AA23" s="140"/>
+      <c r="AB23" s="140"/>
+      <c r="AC23" s="140"/>
+      <c r="AD23" s="140"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="150"/>
-      <c r="O24" s="150"/>
-      <c r="P24" s="150"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="148"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="151"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="151"/>
-      <c r="AB24" s="151"/>
-      <c r="AC24" s="151"/>
-      <c r="AD24" s="151"/>
+        <v>82</v>
+      </c>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="137"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="140"/>
+      <c r="Y24" s="140"/>
+      <c r="Z24" s="140"/>
+      <c r="AA24" s="140"/>
+      <c r="AB24" s="140"/>
+      <c r="AC24" s="140"/>
+      <c r="AD24" s="140"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="150"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="148"/>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="151"/>
-      <c r="Z25" s="151"/>
-      <c r="AA25" s="151"/>
-      <c r="AB25" s="151"/>
-      <c r="AC25" s="151"/>
-      <c r="AD25" s="151"/>
+        <v>83</v>
+      </c>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
+      <c r="O25" s="139"/>
+      <c r="P25" s="139"/>
+      <c r="Q25" s="137"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="140"/>
+      <c r="Y25" s="140"/>
+      <c r="Z25" s="140"/>
+      <c r="AA25" s="140"/>
+      <c r="AB25" s="140"/>
+      <c r="AC25" s="140"/>
+      <c r="AD25" s="140"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="150"/>
-      <c r="P26" s="150"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="148"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="151"/>
-      <c r="AB26" s="151"/>
-      <c r="AC26" s="151"/>
-      <c r="AD26" s="151"/>
+        <v>84</v>
+      </c>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="140"/>
+      <c r="Y26" s="140"/>
+      <c r="Z26" s="140"/>
+      <c r="AA26" s="140"/>
+      <c r="AB26" s="140"/>
+      <c r="AC26" s="140"/>
+      <c r="AD26" s="140"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="150"/>
-      <c r="P27" s="150"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="148"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="148"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="151"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="151"/>
+        <v>85</v>
+      </c>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="139"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="140"/>
+      <c r="Y27" s="140"/>
+      <c r="Z27" s="140"/>
+      <c r="AA27" s="140"/>
+      <c r="AB27" s="140"/>
+      <c r="AC27" s="140"/>
+      <c r="AD27" s="140"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="150"/>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="151"/>
-      <c r="Y28" s="151"/>
-      <c r="Z28" s="151"/>
-      <c r="AA28" s="151"/>
-      <c r="AB28" s="151"/>
-      <c r="AC28" s="151"/>
-      <c r="AD28" s="151"/>
+        <v>86</v>
+      </c>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="137"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="140"/>
+      <c r="Y28" s="140"/>
+      <c r="Z28" s="140"/>
+      <c r="AA28" s="140"/>
+      <c r="AB28" s="140"/>
+      <c r="AC28" s="140"/>
+      <c r="AD28" s="140"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="150"/>
-      <c r="O29" s="150"/>
-      <c r="P29" s="150"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="151"/>
-      <c r="Y29" s="151"/>
-      <c r="Z29" s="151"/>
-      <c r="AA29" s="151"/>
-      <c r="AB29" s="151"/>
-      <c r="AC29" s="151"/>
-      <c r="AD29" s="151"/>
+        <v>87</v>
+      </c>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="140"/>
+      <c r="Y29" s="140"/>
+      <c r="Z29" s="140"/>
+      <c r="AA29" s="140"/>
+      <c r="AB29" s="140"/>
+      <c r="AC29" s="140"/>
+      <c r="AD29" s="140"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="150"/>
-      <c r="P30" s="150"/>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="148"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="148"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="148"/>
-      <c r="X30" s="151"/>
-      <c r="Y30" s="151"/>
-      <c r="Z30" s="151"/>
-      <c r="AA30" s="151"/>
-      <c r="AB30" s="151"/>
-      <c r="AC30" s="151"/>
-      <c r="AD30" s="151"/>
+        <v>88</v>
+      </c>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="139"/>
+      <c r="Q30" s="137"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="140"/>
+      <c r="Y30" s="140"/>
+      <c r="Z30" s="140"/>
+      <c r="AA30" s="140"/>
+      <c r="AB30" s="140"/>
+      <c r="AC30" s="140"/>
+      <c r="AD30" s="140"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="150"/>
-      <c r="P31" s="150"/>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="148"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="151"/>
-      <c r="Y31" s="151"/>
-      <c r="Z31" s="151"/>
-      <c r="AA31" s="151"/>
-      <c r="AB31" s="151"/>
-      <c r="AC31" s="151"/>
-      <c r="AD31" s="151"/>
+        <v>89</v>
+      </c>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="139"/>
+      <c r="Q31" s="137"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="137"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="140"/>
+      <c r="Y31" s="140"/>
+      <c r="Z31" s="140"/>
+      <c r="AA31" s="140"/>
+      <c r="AB31" s="140"/>
+      <c r="AC31" s="140"/>
+      <c r="AD31" s="140"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="150"/>
-      <c r="P32" s="150"/>
-      <c r="Q32" s="148"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="151"/>
-      <c r="Y32" s="151"/>
-      <c r="Z32" s="151"/>
-      <c r="AA32" s="151"/>
-      <c r="AB32" s="151"/>
-      <c r="AC32" s="151"/>
-      <c r="AD32" s="151"/>
+        <v>90</v>
+      </c>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="139"/>
+      <c r="P32" s="139"/>
+      <c r="Q32" s="137"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="137"/>
+      <c r="T32" s="137"/>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="140"/>
+      <c r="Y32" s="140"/>
+      <c r="Z32" s="140"/>
+      <c r="AA32" s="140"/>
+      <c r="AB32" s="140"/>
+      <c r="AC32" s="140"/>
+      <c r="AD32" s="140"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
-      <c r="N33" s="150"/>
-      <c r="O33" s="150"/>
-      <c r="P33" s="150"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="151"/>
-      <c r="Y33" s="151"/>
-      <c r="Z33" s="151"/>
-      <c r="AA33" s="151"/>
-      <c r="AB33" s="151"/>
-      <c r="AC33" s="151"/>
-      <c r="AD33" s="151"/>
+        <v>91</v>
+      </c>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="139"/>
+      <c r="N33" s="139"/>
+      <c r="O33" s="139"/>
+      <c r="P33" s="139"/>
+      <c r="Q33" s="137"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="140"/>
+      <c r="Y33" s="140"/>
+      <c r="Z33" s="140"/>
+      <c r="AA33" s="140"/>
+      <c r="AB33" s="140"/>
+      <c r="AC33" s="140"/>
+      <c r="AD33" s="140"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -8061,7 +8066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84E5297-B7FD-4063-903B-1CEDA9FEC08A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8073,986 +8078,986 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49D9C86-3313-43B7-B3A1-5AFC75808323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K91" sqref="K91"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="156" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="156" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.33203125" style="156" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="156" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" style="156" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="156" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="156"/>
+    <col min="1" max="1" width="3" style="145" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" style="145" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.33203125" style="145" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="145" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" style="145" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="145" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="145"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="157"/>
-      <c r="B2" s="162" t="s">
+      <c r="A2" s="146"/>
+      <c r="B2" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="150"/>
+      <c r="G2" s="147"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="146"/>
+      <c r="B3" s="153">
+        <v>1</v>
+      </c>
+      <c r="C3" s="154" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="150"/>
+      <c r="G3" s="147"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="146"/>
+      <c r="B4" s="153">
+        <v>2</v>
+      </c>
+      <c r="C4" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="150"/>
+      <c r="G4" s="147"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="146"/>
+      <c r="B5" s="153">
+        <v>3</v>
+      </c>
+      <c r="C5" s="154" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="150"/>
+      <c r="G5" s="147"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="146"/>
+      <c r="B6" s="153">
+        <v>4</v>
+      </c>
+      <c r="C6" s="154" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="150"/>
+      <c r="G6" s="147"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="146"/>
+      <c r="B7" s="153">
+        <v>5</v>
+      </c>
+      <c r="C7" s="154" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="150"/>
+      <c r="G7" s="147"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="146"/>
+      <c r="B8" s="153">
+        <v>6</v>
+      </c>
+      <c r="C8" s="154" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="150"/>
+      <c r="G8" s="147"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="146"/>
+      <c r="B9" s="155">
+        <v>7</v>
+      </c>
+      <c r="C9" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="150"/>
+      <c r="G9" s="147"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="146"/>
+      <c r="B10" s="155">
+        <v>8</v>
+      </c>
+      <c r="C10" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="150"/>
+      <c r="G10" s="147"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="146"/>
+      <c r="B11" s="155">
+        <v>9</v>
+      </c>
+      <c r="C11" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="150"/>
+      <c r="G11" s="147"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="146"/>
+      <c r="B12" s="155">
+        <v>10</v>
+      </c>
+      <c r="C12" s="156" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="150"/>
+      <c r="G12" s="147"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="146"/>
+      <c r="B13" s="155">
+        <v>11</v>
+      </c>
+      <c r="C13" s="156" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="150"/>
+      <c r="G13" s="147"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="146"/>
+      <c r="B14" s="155">
+        <v>12</v>
+      </c>
+      <c r="C14" s="156" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="150"/>
+      <c r="G14" s="147"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="146"/>
+      <c r="B15" s="157">
+        <v>13</v>
+      </c>
+      <c r="C15" s="158" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="150"/>
+      <c r="G15" s="147"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="146"/>
+      <c r="B16" s="157">
+        <v>14</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="150"/>
+      <c r="G16" s="147"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="146"/>
+      <c r="B17" s="157">
+        <v>15</v>
+      </c>
+      <c r="C17" s="158" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="150"/>
+      <c r="G17" s="147"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="146"/>
+      <c r="B18" s="157">
+        <v>16</v>
+      </c>
+      <c r="C18" s="158" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="150"/>
+      <c r="G18" s="147"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="146"/>
+      <c r="B19" s="157">
+        <v>17</v>
+      </c>
+      <c r="C19" s="158" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="150"/>
+      <c r="G19" s="147"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="146"/>
+      <c r="B20" s="157">
+        <v>18</v>
+      </c>
+      <c r="C20" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="150"/>
+      <c r="G20" s="147"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="146"/>
+      <c r="B21" s="159">
+        <v>19</v>
+      </c>
+      <c r="C21" s="160" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="150"/>
+      <c r="G21" s="147"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="146"/>
+      <c r="G22" s="147"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="152" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="161"/>
-      <c r="G2" s="158"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="157"/>
-      <c r="B3" s="164">
-        <v>1</v>
-      </c>
-      <c r="C3" s="165" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="161"/>
-      <c r="G3" s="158"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="157"/>
-      <c r="B4" s="164">
+      <c r="D23" s="146"/>
+      <c r="G23" s="147"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="161">
+        <v>1</v>
+      </c>
+      <c r="C24" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="146"/>
+      <c r="G24" s="147"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="161">
         <v>2</v>
       </c>
-      <c r="C4" s="165" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="161"/>
-      <c r="G4" s="158"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="157"/>
-      <c r="B5" s="164">
-        <v>3</v>
-      </c>
-      <c r="C5" s="165" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="161"/>
-      <c r="G5" s="158"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="157"/>
-      <c r="B6" s="164">
-        <v>4</v>
-      </c>
-      <c r="C6" s="165" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="161"/>
-      <c r="G6" s="158"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="157"/>
-      <c r="B7" s="164">
+      <c r="C25" s="174" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="146"/>
+      <c r="G25" s="147"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="161">
+        <v>3</v>
+      </c>
+      <c r="C26" s="174" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="146"/>
+      <c r="G26" s="147"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="161">
+        <v>4</v>
+      </c>
+      <c r="C27" s="174" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="146"/>
+      <c r="G27" s="147"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="161">
         <v>5</v>
       </c>
-      <c r="C7" s="165" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="161"/>
-      <c r="G7" s="158"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="157"/>
-      <c r="B8" s="164">
+      <c r="C28" s="174" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="146"/>
+      <c r="G28" s="147"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="161">
         <v>6</v>
       </c>
-      <c r="C8" s="165" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="161"/>
-      <c r="G8" s="158"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="157"/>
-      <c r="B9" s="166">
+      <c r="C29" s="174" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="146"/>
+      <c r="G29" s="147"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="161">
         <v>7</v>
       </c>
-      <c r="C9" s="167" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="161"/>
-      <c r="G9" s="158"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="157"/>
-      <c r="B10" s="166">
+      <c r="C30" s="174" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="146"/>
+      <c r="G30" s="147"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="161">
         <v>8</v>
       </c>
-      <c r="C10" s="167" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="161"/>
-      <c r="G10" s="158"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="157"/>
-      <c r="B11" s="166">
+      <c r="C31" s="174" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="146"/>
+      <c r="G31" s="147"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="162">
         <v>9</v>
       </c>
-      <c r="C11" s="167" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="161"/>
-      <c r="G11" s="158"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="157"/>
-      <c r="B12" s="166">
+      <c r="C32" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="146"/>
+      <c r="G32" s="147"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="162">
         <v>10</v>
       </c>
-      <c r="C12" s="167" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="161"/>
-      <c r="G12" s="158"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="157"/>
-      <c r="B13" s="166">
+      <c r="C33" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="146"/>
+      <c r="G33" s="147"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="162">
         <v>11</v>
       </c>
-      <c r="C13" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="161"/>
-      <c r="G13" s="158"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="157"/>
-      <c r="B14" s="166">
+      <c r="C34" s="163" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="146"/>
+      <c r="G34" s="147"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="162">
         <v>12</v>
       </c>
-      <c r="C14" s="167" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="161"/>
-      <c r="G14" s="158"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="157"/>
-      <c r="B15" s="168">
+      <c r="C35" s="163" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="146"/>
+      <c r="G35" s="147"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="162">
         <v>13</v>
       </c>
-      <c r="C15" s="169" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="161"/>
-      <c r="G15" s="158"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="157"/>
-      <c r="B16" s="168">
+      <c r="C36" s="163" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="146"/>
+      <c r="G36" s="147"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="162">
         <v>14</v>
       </c>
-      <c r="C16" s="169" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="161"/>
-      <c r="G16" s="158"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="157"/>
-      <c r="B17" s="168">
+      <c r="C37" s="163" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="146"/>
+      <c r="G37" s="147"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="162">
         <v>15</v>
       </c>
-      <c r="C17" s="169" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="161"/>
-      <c r="G17" s="158"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="157"/>
-      <c r="B18" s="168">
+      <c r="C38" s="163" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="146"/>
+      <c r="G38" s="147"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="162">
         <v>16</v>
       </c>
-      <c r="C18" s="169" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="161"/>
-      <c r="G18" s="158"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="157"/>
-      <c r="B19" s="168">
+      <c r="C39" s="163" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="146"/>
+      <c r="G39" s="147"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="162">
         <v>17</v>
       </c>
-      <c r="C19" s="169" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="161"/>
-      <c r="G19" s="158"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="157"/>
-      <c r="B20" s="168">
+      <c r="C40" s="163" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="146"/>
+      <c r="G40" s="147"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="162">
         <v>18</v>
       </c>
-      <c r="C20" s="169" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="161"/>
-      <c r="G20" s="158"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="157"/>
-      <c r="B21" s="170">
+      <c r="C41" s="163" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="146"/>
+      <c r="G41" s="147"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="162">
         <v>19</v>
       </c>
-      <c r="C21" s="171" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="161"/>
-      <c r="G21" s="158"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="160"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="157"/>
-      <c r="G22" s="158"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="162" t="s">
+      <c r="C42" s="163" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="146"/>
+      <c r="G42" s="147"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="162">
+        <v>20</v>
+      </c>
+      <c r="C43" s="163" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="146"/>
+      <c r="G43" s="147"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="162">
+        <v>21</v>
+      </c>
+      <c r="C44" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="146"/>
+      <c r="G44" s="147"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="162">
+        <v>22</v>
+      </c>
+      <c r="C45" s="163" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="146"/>
+      <c r="G45" s="147"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="162">
+        <v>23</v>
+      </c>
+      <c r="C46" s="163" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="146"/>
+      <c r="G46" s="147"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="162">
+        <v>24</v>
+      </c>
+      <c r="C47" s="163" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="146"/>
+      <c r="G47" s="147"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="162">
+        <v>25</v>
+      </c>
+      <c r="C48" s="163" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="146"/>
+      <c r="G48" s="147"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="164">
+        <v>26</v>
+      </c>
+      <c r="C49" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="146"/>
+      <c r="G49" s="147"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="164">
+        <v>27</v>
+      </c>
+      <c r="C50" s="165" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="146"/>
+      <c r="G50" s="147"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="164">
+        <v>28</v>
+      </c>
+      <c r="C51" s="165" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="146"/>
+      <c r="G51" s="147"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="164">
         <v>29</v>
       </c>
-      <c r="C23" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="157"/>
-      <c r="G23" s="158"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="172">
-        <v>1</v>
-      </c>
-      <c r="C24" s="173" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="157"/>
-      <c r="G24" s="158"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="172">
-        <v>2</v>
-      </c>
-      <c r="C25" s="173" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="157"/>
-      <c r="G25" s="158"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="172">
-        <v>3</v>
-      </c>
-      <c r="C26" s="173" t="s">
+      <c r="C52" s="165" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="146"/>
+      <c r="G52" s="147"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="164">
+        <v>30</v>
+      </c>
+      <c r="C53" s="165" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="146"/>
+      <c r="G53" s="147"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="164">
+        <v>31</v>
+      </c>
+      <c r="C54" s="165" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="146"/>
+      <c r="G54" s="147"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="164">
+        <v>32</v>
+      </c>
+      <c r="C55" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="146"/>
+      <c r="G55" s="147"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="164">
+        <v>33</v>
+      </c>
+      <c r="C56" s="165" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="146"/>
+      <c r="G56" s="147"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="164">
+        <v>34</v>
+      </c>
+      <c r="C57" s="165" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="146"/>
+      <c r="G57" s="147"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="164">
+        <v>35</v>
+      </c>
+      <c r="C58" s="165" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="146"/>
+      <c r="G58" s="147"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="164">
+        <v>36</v>
+      </c>
+      <c r="C59" s="165" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="146"/>
+      <c r="G59" s="147"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="164">
+        <v>37</v>
+      </c>
+      <c r="C60" s="165" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="146"/>
+      <c r="G60" s="147"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="164">
+        <v>38</v>
+      </c>
+      <c r="C61" s="165" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="146"/>
+      <c r="G61" s="147"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="164">
+        <v>39</v>
+      </c>
+      <c r="C62" s="165" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="146"/>
+      <c r="G62" s="147"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="164">
+        <v>40</v>
+      </c>
+      <c r="C63" s="165" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="146"/>
+      <c r="G63" s="147"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="162">
+        <v>41</v>
+      </c>
+      <c r="C64" s="163" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="146"/>
+      <c r="G64" s="147"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="162">
+        <v>42</v>
+      </c>
+      <c r="C65" s="163" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="146"/>
+      <c r="G65" s="147"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="162">
+        <v>43</v>
+      </c>
+      <c r="C66" s="163" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="146"/>
+      <c r="G66" s="147"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="162">
+        <v>44</v>
+      </c>
+      <c r="C67" s="163" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="146"/>
+      <c r="G67" s="147"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="162">
+        <v>45</v>
+      </c>
+      <c r="C68" s="163" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="146"/>
+      <c r="G68" s="147"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="162">
+        <v>46</v>
+      </c>
+      <c r="C69" s="163" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="146"/>
+      <c r="G69" s="147"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="162">
+        <v>47</v>
+      </c>
+      <c r="C70" s="163" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="146"/>
+      <c r="G70" s="147"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="162">
+        <v>48</v>
+      </c>
+      <c r="C71" s="163" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="146"/>
+      <c r="G71" s="147"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="166">
+        <v>49</v>
+      </c>
+      <c r="C72" s="163" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="166">
+        <v>50</v>
+      </c>
+      <c r="C73" s="167" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="166">
+        <v>51</v>
+      </c>
+      <c r="C74" s="167" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" s="146"/>
+      <c r="G74" s="147"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="162">
+        <v>52</v>
+      </c>
+      <c r="C75" s="163" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" s="146"/>
+      <c r="G75" s="147"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="162">
+        <v>53</v>
+      </c>
+      <c r="C76" s="163" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="146"/>
+      <c r="G76" s="147"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="168">
+        <v>54</v>
+      </c>
+      <c r="C77" s="169" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="146"/>
+      <c r="G77" s="147"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="168">
+        <v>55</v>
+      </c>
+      <c r="C78" s="169" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="149"/>
+      <c r="F78" s="149"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="168">
+        <v>56</v>
+      </c>
+      <c r="C79" s="169" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="168">
+        <v>57</v>
+      </c>
+      <c r="C80" s="169" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="168">
+        <v>58</v>
+      </c>
+      <c r="C81" s="169" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="168">
+        <v>59</v>
+      </c>
+      <c r="C82" s="169" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="168">
+        <v>60</v>
+      </c>
+      <c r="C83" s="169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="168">
+        <v>61</v>
+      </c>
+      <c r="C84" s="169" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="168">
+        <v>62</v>
+      </c>
+      <c r="C85" s="169" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="168">
         <v>63</v>
       </c>
-      <c r="D26" s="157"/>
-      <c r="G26" s="158"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="172">
-        <v>4</v>
-      </c>
-      <c r="C27" s="173" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="157"/>
-      <c r="G27" s="158"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="172">
-        <v>5</v>
-      </c>
-      <c r="C28" s="173" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="157"/>
-      <c r="G28" s="158"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="172">
-        <v>6</v>
-      </c>
-      <c r="C29" s="173" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="157"/>
-      <c r="G29" s="158"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="172">
-        <v>7</v>
-      </c>
-      <c r="C30" s="173" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="157"/>
-      <c r="G30" s="158"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="172">
-        <v>8</v>
-      </c>
-      <c r="C31" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="157"/>
-      <c r="G31" s="158"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="174">
-        <v>9</v>
-      </c>
-      <c r="C32" s="175" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="157"/>
-      <c r="G32" s="158"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="174">
-        <v>10</v>
-      </c>
-      <c r="C33" s="175" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="157"/>
-      <c r="G33" s="158"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="174">
-        <v>11</v>
-      </c>
-      <c r="C34" s="175" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="157"/>
-      <c r="G34" s="158"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="174">
-        <v>12</v>
-      </c>
-      <c r="C35" s="175" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="157"/>
-      <c r="G35" s="158"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="174">
-        <v>13</v>
-      </c>
-      <c r="C36" s="175" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="157"/>
-      <c r="G36" s="158"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="174">
-        <v>14</v>
-      </c>
-      <c r="C37" s="175" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="157"/>
-      <c r="G37" s="158"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="174">
-        <v>15</v>
-      </c>
-      <c r="C38" s="175" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="157"/>
-      <c r="G38" s="158"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="174">
-        <v>16</v>
-      </c>
-      <c r="C39" s="175" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="157"/>
-      <c r="G39" s="158"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="174">
-        <v>17</v>
-      </c>
-      <c r="C40" s="175" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="157"/>
-      <c r="G40" s="158"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="174">
-        <v>18</v>
-      </c>
-      <c r="C41" s="175" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="157"/>
-      <c r="G41" s="158"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="174">
-        <v>19</v>
-      </c>
-      <c r="C42" s="175" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="157"/>
-      <c r="G42" s="158"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="174">
-        <v>20</v>
-      </c>
-      <c r="C43" s="175" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="157"/>
-      <c r="G43" s="158"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="174">
-        <v>21</v>
-      </c>
-      <c r="C44" s="175" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="157"/>
-      <c r="G44" s="158"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="174">
-        <v>22</v>
-      </c>
-      <c r="C45" s="175" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="157"/>
-      <c r="G45" s="158"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="174">
-        <v>23</v>
-      </c>
-      <c r="C46" s="175" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="157"/>
-      <c r="G46" s="158"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="174">
-        <v>24</v>
-      </c>
-      <c r="C47" s="175" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="157"/>
-      <c r="G47" s="158"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="174">
-        <v>25</v>
-      </c>
-      <c r="C48" s="175" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" s="157"/>
-      <c r="G48" s="158"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="176">
-        <v>26</v>
-      </c>
-      <c r="C49" s="177" t="s">
+      <c r="C86" s="169" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="168">
+        <v>64</v>
+      </c>
+      <c r="C87" s="169" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="168">
+        <v>65</v>
+      </c>
+      <c r="C88" s="169" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="157"/>
-      <c r="G49" s="158"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="176">
-        <v>27</v>
-      </c>
-      <c r="C50" s="177" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="157"/>
-      <c r="G50" s="158"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="176">
-        <v>28</v>
-      </c>
-      <c r="C51" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="157"/>
-      <c r="G51" s="158"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="176">
-        <v>29</v>
-      </c>
-      <c r="C52" s="177" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="157"/>
-      <c r="G52" s="158"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="176">
-        <v>30</v>
-      </c>
-      <c r="C53" s="177" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="157"/>
-      <c r="G53" s="158"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="176">
-        <v>31</v>
-      </c>
-      <c r="C54" s="177" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="157"/>
-      <c r="G54" s="158"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="176">
-        <v>32</v>
-      </c>
-      <c r="C55" s="177" t="s">
-        <v>132</v>
-      </c>
-      <c r="D55" s="157"/>
-      <c r="G55" s="158"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="176">
-        <v>33</v>
-      </c>
-      <c r="C56" s="177" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="157"/>
-      <c r="G56" s="158"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="176">
-        <v>34</v>
-      </c>
-      <c r="C57" s="177" t="s">
-        <v>134</v>
-      </c>
-      <c r="D57" s="157"/>
-      <c r="G57" s="158"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="176">
-        <v>35</v>
-      </c>
-      <c r="C58" s="177" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="157"/>
-      <c r="G58" s="158"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="176">
-        <v>36</v>
-      </c>
-      <c r="C59" s="177" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="157"/>
-      <c r="G59" s="158"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="176">
-        <v>37</v>
-      </c>
-      <c r="C60" s="177" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" s="157"/>
-      <c r="G60" s="158"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="176">
-        <v>38</v>
-      </c>
-      <c r="C61" s="177" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="157"/>
-      <c r="G61" s="158"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="176">
-        <v>39</v>
-      </c>
-      <c r="C62" s="177" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="157"/>
-      <c r="G62" s="158"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="176">
-        <v>40</v>
-      </c>
-      <c r="C63" s="177" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="157"/>
-      <c r="G63" s="158"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="174">
-        <v>41</v>
-      </c>
-      <c r="C64" s="175" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" s="157"/>
-      <c r="G64" s="158"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="174">
-        <v>42</v>
-      </c>
-      <c r="C65" s="175" t="s">
-        <v>148</v>
-      </c>
-      <c r="D65" s="157"/>
-      <c r="G65" s="158"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="174">
-        <v>43</v>
-      </c>
-      <c r="C66" s="175" t="s">
-        <v>157</v>
-      </c>
-      <c r="D66" s="157"/>
-      <c r="G66" s="158"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="174">
-        <v>44</v>
-      </c>
-      <c r="C67" s="175" t="s">
-        <v>149</v>
-      </c>
-      <c r="D67" s="157"/>
-      <c r="G67" s="158"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="174">
-        <v>45</v>
-      </c>
-      <c r="C68" s="175" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68" s="157"/>
-      <c r="G68" s="158"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="174">
-        <v>46</v>
-      </c>
-      <c r="C69" s="175" t="s">
-        <v>154</v>
-      </c>
-      <c r="D69" s="157"/>
-      <c r="G69" s="158"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="174">
-        <v>47</v>
-      </c>
-      <c r="C70" s="175" t="s">
-        <v>150</v>
-      </c>
-      <c r="D70" s="157"/>
-      <c r="G70" s="158"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="174">
-        <v>48</v>
-      </c>
-      <c r="C71" s="175" t="s">
-        <v>153</v>
-      </c>
-      <c r="D71" s="157"/>
-      <c r="G71" s="158"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="178">
-        <v>49</v>
-      </c>
-      <c r="C72" s="175" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="178">
-        <v>50</v>
-      </c>
-      <c r="C73" s="179" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="178">
-        <v>51</v>
-      </c>
-      <c r="C74" s="179" t="s">
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="168">
+        <v>66</v>
+      </c>
+      <c r="C89" s="169" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="168">
+        <v>67</v>
+      </c>
+      <c r="C90" s="169" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="168">
+        <v>68</v>
+      </c>
+      <c r="C91" s="169" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="168">
+        <v>69</v>
+      </c>
+      <c r="C92" s="169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="168">
+        <v>70</v>
+      </c>
+      <c r="C93" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="D74" s="157"/>
-      <c r="G74" s="158"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="174">
-        <v>52</v>
-      </c>
-      <c r="C75" s="175" t="s">
-        <v>158</v>
-      </c>
-      <c r="D75" s="157"/>
-      <c r="G75" s="158"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="174">
-        <v>53</v>
-      </c>
-      <c r="C76" s="175" t="s">
-        <v>182</v>
-      </c>
-      <c r="D76" s="157"/>
-      <c r="G76" s="158"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="180">
-        <v>54</v>
-      </c>
-      <c r="C77" s="181" t="s">
-        <v>160</v>
-      </c>
-      <c r="D77" s="157"/>
-      <c r="G77" s="158"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="180">
-        <v>55</v>
-      </c>
-      <c r="C78" s="181" t="s">
-        <v>161</v>
-      </c>
-      <c r="E78" s="160"/>
-      <c r="F78" s="160"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="180">
-        <v>56</v>
-      </c>
-      <c r="C79" s="181" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="180">
-        <v>57</v>
-      </c>
-      <c r="C80" s="181" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="180">
-        <v>58</v>
-      </c>
-      <c r="C81" s="181" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="180">
-        <v>59</v>
-      </c>
-      <c r="C82" s="181" t="s">
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="168">
+        <v>71</v>
+      </c>
+      <c r="C94" s="169" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="180">
-        <v>60</v>
-      </c>
-      <c r="C83" s="181" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="168">
+        <v>72</v>
+      </c>
+      <c r="C95" s="169" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="180">
-        <v>61</v>
-      </c>
-      <c r="C84" s="181" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="180">
-        <v>62</v>
-      </c>
-      <c r="C85" s="181" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="180">
-        <v>63</v>
-      </c>
-      <c r="C86" s="181" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="180">
-        <v>64</v>
-      </c>
-      <c r="C87" s="181" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="180">
-        <v>65</v>
-      </c>
-      <c r="C88" s="181" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="180">
-        <v>66</v>
-      </c>
-      <c r="C89" s="181" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="180">
-        <v>67</v>
-      </c>
-      <c r="C90" s="181" t="s">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="168">
+        <v>73</v>
+      </c>
+      <c r="C96" s="169" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="168">
+        <v>74</v>
+      </c>
+      <c r="C97" s="169" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="168">
+        <v>75</v>
+      </c>
+      <c r="C98" s="171" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="180">
-        <v>68</v>
-      </c>
-      <c r="C91" s="181" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="180">
-        <v>69</v>
-      </c>
-      <c r="C92" s="181" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="180">
-        <v>70</v>
-      </c>
-      <c r="C93" s="181" t="s">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="170">
+        <v>76</v>
+      </c>
+      <c r="C99" s="171" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="180">
-        <v>71</v>
-      </c>
-      <c r="C94" s="181" t="s">
+    <row r="100" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="172">
+        <v>77</v>
+      </c>
+      <c r="C100" s="173" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="180">
-        <v>72</v>
-      </c>
-      <c r="C95" s="181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="180">
-        <v>73</v>
-      </c>
-      <c r="C96" s="181" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="180">
-        <v>74</v>
-      </c>
-      <c r="C97" s="181" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="180">
-        <v>75</v>
-      </c>
-      <c r="C98" s="183" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="182">
-        <v>76</v>
-      </c>
-      <c r="C99" s="183" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="184">
-        <v>77</v>
-      </c>
-      <c r="C100" s="185" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -9063,7 +9068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089F5D45-EBB5-47D9-87A4-36603890C198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9075,7 +9080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF7CBB8-2BBC-433B-950E-EE4C2AF9EFFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9087,7 +9092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F9BB13-6171-46D0-A77D-2E07402916DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9099,7 +9104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34194ACF-2A32-48C3-8CB3-BC0A55B85243}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9111,7 +9116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EF1C04-6C8E-4FB7-BF79-D88017DD957A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Offline/Marketring/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/Marketring/MarketingMasterPlan-May-2023.xlsx
@@ -25,6 +25,7 @@
     <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -324,9 +325,6 @@
     <t>Material UI</t>
   </si>
   <si>
-    <t>Chakra UI</t>
-  </si>
-  <si>
     <t>Skeleton UI</t>
   </si>
   <si>
@@ -604,13 +602,28 @@
   </si>
   <si>
     <t>Home Page (About Anodiam + Login + Explore)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chakra UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; Carausel</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +679,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1378,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1886,6 +1906,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8081,8 +8104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8108,7 +8131,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="150"/>
       <c r="G2" s="147"/>
@@ -8130,7 +8153,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="154" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="D4" s="150"/>
       <c r="G4" s="147"/>
@@ -8141,7 +8164,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="154" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="150"/>
       <c r="G5" s="147"/>
@@ -8152,7 +8175,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="150"/>
       <c r="G6" s="147"/>
@@ -8163,7 +8186,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="154" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="150"/>
       <c r="G7" s="147"/>
@@ -8173,8 +8196,8 @@
       <c r="B8" s="153">
         <v>6</v>
       </c>
-      <c r="C8" s="154" t="s">
-        <v>105</v>
+      <c r="C8" s="186" t="s">
+        <v>104</v>
       </c>
       <c r="D8" s="150"/>
       <c r="G8" s="147"/>
@@ -8185,7 +8208,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="156" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="150"/>
       <c r="G9" s="147"/>
@@ -8196,7 +8219,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="156" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="150"/>
       <c r="G10" s="147"/>
@@ -8207,7 +8230,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="156" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="150"/>
       <c r="G11" s="147"/>
@@ -8218,7 +8241,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="156" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="150"/>
       <c r="G12" s="147"/>
@@ -8229,7 +8252,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="156" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="150"/>
       <c r="G13" s="147"/>
@@ -8240,7 +8263,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="156" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="150"/>
       <c r="G14" s="147"/>
@@ -8251,7 +8274,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="158" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="150"/>
       <c r="G15" s="147"/>
@@ -8262,7 +8285,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="158" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="150"/>
       <c r="G16" s="147"/>
@@ -8273,7 +8296,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="158" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="150"/>
       <c r="G17" s="147"/>
@@ -8284,7 +8307,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="158" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="150"/>
       <c r="G18" s="147"/>
@@ -8295,7 +8318,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="150"/>
       <c r="G19" s="147"/>
@@ -8306,7 +8329,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="158" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="150"/>
       <c r="G20" s="147"/>
@@ -8317,7 +8340,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="160" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="150"/>
       <c r="G21" s="147"/>
@@ -8333,7 +8356,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="152" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="146"/>
       <c r="G23" s="147"/>
@@ -8343,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="174" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D24" s="146"/>
       <c r="G24" s="147"/>
@@ -8353,7 +8376,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="174" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="146"/>
       <c r="G25" s="147"/>
@@ -8363,7 +8386,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="174" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D26" s="146"/>
       <c r="G26" s="147"/>
@@ -8373,7 +8396,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="174" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="146"/>
       <c r="G27" s="147"/>
@@ -8383,7 +8406,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="174" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="146"/>
       <c r="G28" s="147"/>
@@ -8393,7 +8416,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="174" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D29" s="146"/>
       <c r="G29" s="147"/>
@@ -8403,7 +8426,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="174" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" s="146"/>
       <c r="G30" s="147"/>
@@ -8413,7 +8436,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="174" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="146"/>
       <c r="G31" s="147"/>
@@ -8423,7 +8446,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="163" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" s="146"/>
       <c r="G32" s="147"/>
@@ -8433,7 +8456,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="146"/>
       <c r="G33" s="147"/>
@@ -8443,7 +8466,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="163" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" s="146"/>
       <c r="G34" s="147"/>
@@ -8453,7 +8476,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="163" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="146"/>
       <c r="G35" s="147"/>
@@ -8463,7 +8486,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="163" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="146"/>
       <c r="G36" s="147"/>
@@ -8473,7 +8496,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="163" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="146"/>
       <c r="G37" s="147"/>
@@ -8483,7 +8506,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="163" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="146"/>
       <c r="G38" s="147"/>
@@ -8493,7 +8516,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="163" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="146"/>
       <c r="G39" s="147"/>
@@ -8503,7 +8526,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="163" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="146"/>
       <c r="G40" s="147"/>
@@ -8513,7 +8536,7 @@
         <v>18</v>
       </c>
       <c r="C41" s="163" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" s="146"/>
       <c r="G41" s="147"/>
@@ -8523,7 +8546,7 @@
         <v>19</v>
       </c>
       <c r="C42" s="163" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="146"/>
       <c r="G42" s="147"/>
@@ -8533,7 +8556,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="163" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D43" s="146"/>
       <c r="G43" s="147"/>
@@ -8543,7 +8566,7 @@
         <v>21</v>
       </c>
       <c r="C44" s="163" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" s="146"/>
       <c r="G44" s="147"/>
@@ -8553,7 +8576,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="163" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45" s="146"/>
       <c r="G45" s="147"/>
@@ -8563,7 +8586,7 @@
         <v>23</v>
       </c>
       <c r="C46" s="163" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D46" s="146"/>
       <c r="G46" s="147"/>
@@ -8573,7 +8596,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="163" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D47" s="146"/>
       <c r="G47" s="147"/>
@@ -8583,7 +8606,7 @@
         <v>25</v>
       </c>
       <c r="C48" s="163" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D48" s="146"/>
       <c r="G48" s="147"/>
@@ -8593,7 +8616,7 @@
         <v>26</v>
       </c>
       <c r="C49" s="165" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D49" s="146"/>
       <c r="G49" s="147"/>
@@ -8603,7 +8626,7 @@
         <v>27</v>
       </c>
       <c r="C50" s="165" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" s="146"/>
       <c r="G50" s="147"/>
@@ -8613,7 +8636,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="165" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" s="146"/>
       <c r="G51" s="147"/>
@@ -8623,7 +8646,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="165" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D52" s="146"/>
       <c r="G52" s="147"/>
@@ -8633,7 +8656,7 @@
         <v>30</v>
       </c>
       <c r="C53" s="165" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D53" s="146"/>
       <c r="G53" s="147"/>
@@ -8643,7 +8666,7 @@
         <v>31</v>
       </c>
       <c r="C54" s="165" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D54" s="146"/>
       <c r="G54" s="147"/>
@@ -8653,7 +8676,7 @@
         <v>32</v>
       </c>
       <c r="C55" s="165" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="146"/>
       <c r="G55" s="147"/>
@@ -8663,7 +8686,7 @@
         <v>33</v>
       </c>
       <c r="C56" s="165" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D56" s="146"/>
       <c r="G56" s="147"/>
@@ -8673,7 +8696,7 @@
         <v>34</v>
       </c>
       <c r="C57" s="165" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" s="146"/>
       <c r="G57" s="147"/>
@@ -8683,7 +8706,7 @@
         <v>35</v>
       </c>
       <c r="C58" s="165" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" s="146"/>
       <c r="G58" s="147"/>
@@ -8693,7 +8716,7 @@
         <v>36</v>
       </c>
       <c r="C59" s="165" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D59" s="146"/>
       <c r="G59" s="147"/>
@@ -8703,7 +8726,7 @@
         <v>37</v>
       </c>
       <c r="C60" s="165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="146"/>
       <c r="G60" s="147"/>
@@ -8713,7 +8736,7 @@
         <v>38</v>
       </c>
       <c r="C61" s="165" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="146"/>
       <c r="G61" s="147"/>
@@ -8723,7 +8746,7 @@
         <v>39</v>
       </c>
       <c r="C62" s="165" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D62" s="146"/>
       <c r="G62" s="147"/>
@@ -8733,7 +8756,7 @@
         <v>40</v>
       </c>
       <c r="C63" s="165" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D63" s="146"/>
       <c r="G63" s="147"/>
@@ -8743,7 +8766,7 @@
         <v>41</v>
       </c>
       <c r="C64" s="163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" s="146"/>
       <c r="G64" s="147"/>
@@ -8753,7 +8776,7 @@
         <v>42</v>
       </c>
       <c r="C65" s="163" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D65" s="146"/>
       <c r="G65" s="147"/>
@@ -8763,7 +8786,7 @@
         <v>43</v>
       </c>
       <c r="C66" s="163" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D66" s="146"/>
       <c r="G66" s="147"/>
@@ -8773,7 +8796,7 @@
         <v>44</v>
       </c>
       <c r="C67" s="163" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D67" s="146"/>
       <c r="G67" s="147"/>
@@ -8783,7 +8806,7 @@
         <v>45</v>
       </c>
       <c r="C68" s="163" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" s="146"/>
       <c r="G68" s="147"/>
@@ -8793,7 +8816,7 @@
         <v>46</v>
       </c>
       <c r="C69" s="163" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D69" s="146"/>
       <c r="G69" s="147"/>
@@ -8803,7 +8826,7 @@
         <v>47</v>
       </c>
       <c r="C70" s="163" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" s="146"/>
       <c r="G70" s="147"/>
@@ -8813,7 +8836,7 @@
         <v>48</v>
       </c>
       <c r="C71" s="163" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D71" s="146"/>
       <c r="G71" s="147"/>
@@ -8823,7 +8846,7 @@
         <v>49</v>
       </c>
       <c r="C72" s="163" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
@@ -8831,7 +8854,7 @@
         <v>50</v>
       </c>
       <c r="C73" s="167" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
@@ -8839,7 +8862,7 @@
         <v>51</v>
       </c>
       <c r="C74" s="167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D74" s="146"/>
       <c r="G74" s="147"/>
@@ -8849,7 +8872,7 @@
         <v>52</v>
       </c>
       <c r="C75" s="163" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D75" s="146"/>
       <c r="G75" s="147"/>
@@ -8859,7 +8882,7 @@
         <v>53</v>
       </c>
       <c r="C76" s="163" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D76" s="146"/>
       <c r="G76" s="147"/>
@@ -8869,7 +8892,7 @@
         <v>54</v>
       </c>
       <c r="C77" s="169" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D77" s="146"/>
       <c r="G77" s="147"/>
@@ -8879,7 +8902,7 @@
         <v>55</v>
       </c>
       <c r="C78" s="169" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E78" s="149"/>
       <c r="F78" s="149"/>
@@ -8889,7 +8912,7 @@
         <v>56</v>
       </c>
       <c r="C79" s="169" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
@@ -8897,7 +8920,7 @@
         <v>57</v>
       </c>
       <c r="C80" s="169" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
@@ -8905,7 +8928,7 @@
         <v>58</v>
       </c>
       <c r="C81" s="169" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
@@ -8913,7 +8936,7 @@
         <v>59</v>
       </c>
       <c r="C82" s="169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
@@ -8921,7 +8944,7 @@
         <v>60</v>
       </c>
       <c r="C83" s="169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.3">
@@ -8929,7 +8952,7 @@
         <v>61</v>
       </c>
       <c r="C84" s="169" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
@@ -8937,7 +8960,7 @@
         <v>62</v>
       </c>
       <c r="C85" s="169" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
@@ -8945,7 +8968,7 @@
         <v>63</v>
       </c>
       <c r="C86" s="169" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
@@ -8953,7 +8976,7 @@
         <v>64</v>
       </c>
       <c r="C87" s="169" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
@@ -8961,7 +8984,7 @@
         <v>65</v>
       </c>
       <c r="C88" s="169" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
@@ -8969,7 +8992,7 @@
         <v>66</v>
       </c>
       <c r="C89" s="169" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
@@ -8977,7 +9000,7 @@
         <v>67</v>
       </c>
       <c r="C90" s="169" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
@@ -8985,7 +9008,7 @@
         <v>68</v>
       </c>
       <c r="C91" s="169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
@@ -8993,7 +9016,7 @@
         <v>69</v>
       </c>
       <c r="C92" s="169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
@@ -9001,7 +9024,7 @@
         <v>70</v>
       </c>
       <c r="C93" s="169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
@@ -9009,7 +9032,7 @@
         <v>71</v>
       </c>
       <c r="C94" s="169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
@@ -9017,7 +9040,7 @@
         <v>72</v>
       </c>
       <c r="C95" s="169" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
@@ -9025,7 +9048,7 @@
         <v>73</v>
       </c>
       <c r="C96" s="169" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
@@ -9033,7 +9056,7 @@
         <v>74</v>
       </c>
       <c r="C97" s="169" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
@@ -9041,7 +9064,7 @@
         <v>75</v>
       </c>
       <c r="C98" s="171" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
@@ -9049,7 +9072,7 @@
         <v>76</v>
       </c>
       <c r="C99" s="171" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9057,7 +9080,7 @@
         <v>77</v>
       </c>
       <c r="C100" s="173" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
